--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="参考" sheetId="1" r:id="rId1"/>
     <sheet name="2-12" sheetId="2" r:id="rId2"/>
+    <sheet name="2-13" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +174,58 @@
   </si>
   <si>
     <t>50g燕麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3勺增肌粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆拌面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一盘新疆拌面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖浇饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一盘盖浇饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个面包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个牛肉包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2袋纯奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉2根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个鸡蛋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:L17"/>
+  <dimension ref="D5:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -585,7 +638,7 @@
         <v>5.7</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="K6:L7" si="1">G7/100*60</f>
+        <f t="shared" ref="L7" si="1">G7/100*60</f>
         <v>0</v>
       </c>
     </row>
@@ -837,7 +890,7 @@
         <v>7.3919999999999995</v>
       </c>
     </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
         <v>35</v>
       </c>
@@ -846,6 +899,93 @@
       </c>
       <c r="L17">
         <v>4.8</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>128.86000000000001</v>
+      </c>
+      <c r="F18">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="G18">
+        <v>12.8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18">
+        <f>E18*3</f>
+        <v>386.58000000000004</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:L18" si="8">F18*3</f>
+        <v>12.18</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="8"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19">
+        <v>142</v>
+      </c>
+      <c r="F19">
+        <v>4.8</v>
+      </c>
+      <c r="G19">
+        <v>17.5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19">
+        <f>E19*4.5</f>
+        <v>639</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:L19" si="9">F19*4.5</f>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="9"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <v>313</v>
+      </c>
+      <c r="F20">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G20">
+        <v>58.1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20">
+        <f>E20*0.6</f>
+        <v>187.79999999999998</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20:L20" si="10">F20*0.6</f>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="10"/>
+        <v>34.86</v>
       </c>
     </row>
   </sheetData>
@@ -860,7 +1000,7 @@
   <dimension ref="C6:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1027,4 +1167,155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <f>4*7.049</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="E6">
+        <f>4*1.484</f>
+        <v>5.9359999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E7">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <f>2*1.246</f>
+        <v>2.492</v>
+      </c>
+      <c r="E8">
+        <f>2*18.512</f>
+        <v>37.024000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <f>2*4.8</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <f>3*12.6</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="E10">
+        <f>3*26.2</f>
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>12.18</v>
+      </c>
+      <c r="E11">
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="E12">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E13">
+        <v>34.86</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14">
+        <f>1.8/12*50</f>
+        <v>7.5</v>
+      </c>
+      <c r="E14">
+        <f>7.392/12*50</f>
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D6:D14)</f>
+        <v>156.56799999999998</v>
+      </c>
+      <c r="E20">
+        <f>SUM(E6:E14)</f>
+        <v>410.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="参考" sheetId="1" r:id="rId1"/>
     <sheet name="2-12" sheetId="2" r:id="rId2"/>
     <sheet name="2-13" sheetId="3" r:id="rId3"/>
+    <sheet name="2-14" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +227,10 @@
   </si>
   <si>
     <t>4个鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包*2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,7 +1178,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="C10:E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1318,4 +1325,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <f>4*7.049</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="E4">
+        <f>4*1.484</f>
+        <v>5.9359999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E5">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <f>2*1.246</f>
+        <v>2.492</v>
+      </c>
+      <c r="E6">
+        <f>2*18.512</f>
+        <v>37.024000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>2*4.8</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <f>2*4.98</f>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E8">
+        <f>2*34.86</f>
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D4:D13)</f>
+        <v>82.468000000000018</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E4:E13)</f>
+        <v>218.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +231,18 @@
   </si>
   <si>
     <t>面包*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆小面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增肌粉*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘸水面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +571,7 @@
   <dimension ref="D5:L20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:L20"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1017,7 @@
   <dimension ref="C6:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1332,7 +1344,7 @@
   <dimension ref="C3:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1410,17 +1422,69 @@
         <v>69.72</v>
       </c>
     </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <f>2*1.246</f>
+        <v>2.492</v>
+      </c>
+      <c r="E9">
+        <f>2*18.512</f>
+        <v>37.024000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <f>5*2.72</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="E10">
+        <f>5*13.76</f>
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <f>3.5*2.7</f>
+        <v>9.4500000000000011</v>
+      </c>
+      <c r="E11">
+        <f>2.5*24.2</f>
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E12">
+        <f>2*26.2</f>
+        <v>52.4</v>
+      </c>
+    </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14">
         <f>SUM(D4:D13)</f>
-        <v>82.468000000000018</v>
+        <v>133.21000000000004</v>
       </c>
       <c r="E14">
         <f>SUM(E4:E13)</f>
-        <v>218.88</v>
+        <v>437.60399999999998</v>
       </c>
     </row>
   </sheetData>

--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="参考" sheetId="1" r:id="rId1"/>
     <sheet name="2-12" sheetId="2" r:id="rId2"/>
     <sheet name="2-13" sheetId="3" r:id="rId3"/>
     <sheet name="2-14" sheetId="4" r:id="rId4"/>
+    <sheet name="2-15" sheetId="5" r:id="rId5"/>
+    <sheet name="2-16" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +245,22 @@
   </si>
   <si>
     <t>蘸水面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3勺燕麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2勺增肌粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉4根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉4根</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +589,7 @@
   <dimension ref="D5:L20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K13" sqref="K13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1209,7 @@
   <dimension ref="C5:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="C10:E10"/>
+      <selection activeCell="C11" sqref="C11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1343,11 +1361,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
@@ -1492,4 +1513,260 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <f>4*7.049</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="E4">
+        <f>4*1.484</f>
+        <v>5.9359999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E5">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <f>4*1.246</f>
+        <v>4.984</v>
+      </c>
+      <c r="E6">
+        <f>4*18.512</f>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>2*4.8</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <f>2*4.98</f>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E8">
+        <f>2*34.86</f>
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>12.18</v>
+      </c>
+      <c r="E9">
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="E10">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <f>3*1.8</f>
+        <v>5.4</v>
+      </c>
+      <c r="E11">
+        <f>3*7.392</f>
+        <v>22.176000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>12.6</v>
+      </c>
+      <c r="E12">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D4:D13)</f>
+        <v>136.74</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E4:E13)</f>
+        <v>421.42999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <f>4*7.049</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="E4">
+        <f>4*1.484</f>
+        <v>5.9359999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E5">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6">
+        <f>2*1.246</f>
+        <v>2.492</v>
+      </c>
+      <c r="E6">
+        <f>2*18.512</f>
+        <v>37.024000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>2*4.8</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <f>2*4.98</f>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E8">
+        <f>2*34.86</f>
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D4:D13)</f>
+        <v>82.468000000000018</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E4:E13)</f>
+        <v>218.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,11 +200,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>一个面包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>面包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一个面包</t>
+    <t>燕麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个牛肉包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2袋纯奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉2根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆小面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增肌粉*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘸水面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3勺燕麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2勺增肌粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉4根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉4根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸饺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5笼屉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5笼屉蒸饺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -212,55 +276,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>燕麦</t>
+    <t>面包*1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3个牛肉包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2袋纯奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香蕉2根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个鸡蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面包*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆小面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增肌粉*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘸水面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3勺燕麦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2勺增肌粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香蕉4根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香蕉4根</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:L20"/>
+  <dimension ref="D5:L21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:L13"/>
+      <selection activeCell="L20" sqref="K20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -996,7 +1016,7 @@
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E20">
         <v>313</v>
@@ -1008,7 +1028,7 @@
         <v>58.1</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <f>E20*0.6</f>
@@ -1021,6 +1041,35 @@
       <c r="L20">
         <f t="shared" si="10"/>
         <v>34.86</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21">
+        <v>109.26</v>
+      </c>
+      <c r="F21">
+        <v>4.16</v>
+      </c>
+      <c r="G21">
+        <v>20.69</v>
+      </c>
+      <c r="I21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21">
+        <f>E21*3</f>
+        <v>327.78000000000003</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:L21" si="11">F21*3</f>
+        <v>12.48</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="11"/>
+        <v>62.070000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1084,7 @@
   <dimension ref="C6:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+      <selection activeCell="C14" sqref="C14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1228,7 +1277,7 @@
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <f>4*7.049</f>
@@ -1241,7 +1290,7 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <f>3*11.94</f>
@@ -1254,7 +1303,7 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8">
         <f>2*1.246</f>
@@ -1267,7 +1316,7 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <f>2*3</f>
@@ -1315,7 +1364,7 @@
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>4.9800000000000004</v>
@@ -1326,7 +1375,7 @@
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <f>1.8/12*50</f>
@@ -1362,7 +1411,7 @@
   <dimension ref="C3:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:E14"/>
+      <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1429,7 @@
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <f>4*7.049</f>
@@ -1393,7 +1442,7 @@
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <f>3*11.94</f>
@@ -1406,7 +1455,7 @@
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <f>2*1.246</f>
@@ -1419,7 +1468,7 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <f>2*3</f>
@@ -1432,7 +1481,7 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <f>2*4.98</f>
@@ -1445,7 +1494,7 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <f>2*1.246</f>
@@ -1458,7 +1507,7 @@
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <f>5*2.72</f>
@@ -1471,7 +1520,7 @@
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <f>3.5*2.7</f>
@@ -1484,7 +1533,7 @@
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <f>2*12.6</f>
@@ -1538,7 +1587,7 @@
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <f>4*7.049</f>
@@ -1551,7 +1600,7 @@
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <f>3*11.94</f>
@@ -1564,7 +1613,7 @@
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <f>4*1.246</f>
@@ -1577,7 +1626,7 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <f>2*3</f>
@@ -1590,7 +1639,7 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <f>2*4.98</f>
@@ -1625,7 +1674,7 @@
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <f>3*1.8</f>
@@ -1638,7 +1687,7 @@
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>12.6</v>
@@ -1689,7 +1738,7 @@
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <f>4*7.049</f>
@@ -1702,7 +1751,7 @@
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <f>3*11.94</f>
@@ -1715,20 +1764,20 @@
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6">
-        <f>2*1.246</f>
-        <v>2.492</v>
+        <f>4*1.246</f>
+        <v>4.984</v>
       </c>
       <c r="E6">
-        <f>2*18.512</f>
-        <v>37.024000000000001</v>
+        <f>4*18.512</f>
+        <v>74.048000000000002</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <f>2*3</f>
@@ -1741,15 +1790,52 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8">
+        <f>1*4.98</f>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E8">
+        <f>1*34.86</f>
+        <v>34.86</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>52</v>
       </c>
-      <c r="D8">
-        <f>2*4.98</f>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="E8">
-        <f>2*34.86</f>
-        <v>69.72</v>
+      <c r="D9">
+        <f>5*2.72</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="E9">
+        <f>5*13.76</f>
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10">
+        <v>12.48</v>
+      </c>
+      <c r="E10">
+        <v>62.070000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E11">
+        <f>2*26.2</f>
+        <v>52.4</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
@@ -1758,15 +1844,16 @@
       </c>
       <c r="D14">
         <f>SUM(D4:D13)</f>
-        <v>82.468000000000018</v>
+        <v>131.26000000000002</v>
       </c>
       <c r="E14">
         <f>SUM(E4:E13)</f>
-        <v>218.88</v>
+        <v>404.31399999999996</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="参考" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="2-14" sheetId="4" r:id="rId4"/>
     <sheet name="2-15" sheetId="5" r:id="rId5"/>
     <sheet name="2-16" sheetId="6" r:id="rId6"/>
+    <sheet name="2-17" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +282,14 @@
   </si>
   <si>
     <t>3个牛肉包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3勺燕麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包*2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +618,7 @@
   <dimension ref="D5:L21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L20" sqref="K20:L20"/>
+      <selection activeCell="K16" sqref="K16:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1267,7 @@
   <dimension ref="C5:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:E12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1856,4 +1865,161 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <f>4*7.049</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="E4">
+        <f>4*1.484</f>
+        <v>5.9359999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E5">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <f>4*1.246</f>
+        <v>4.984</v>
+      </c>
+      <c r="E6">
+        <f>4*18.512</f>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>2*4.8</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <f>2*4.98</f>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E8">
+        <f>2*34.86</f>
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <f>5*2.72</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="E9">
+        <f>5*13.76</f>
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>12.18</v>
+      </c>
+      <c r="E10">
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E11">
+        <f>2*26.2</f>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12">
+        <f>3*1.8</f>
+        <v>5.4</v>
+      </c>
+      <c r="E12">
+        <f>3*7.392</f>
+        <v>22.176000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D4:D13)</f>
+        <v>141.34</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E4:E13)</f>
+        <v>437.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="参考" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="2-15" sheetId="5" r:id="rId5"/>
     <sheet name="2-16" sheetId="6" r:id="rId6"/>
     <sheet name="2-17" sheetId="7" r:id="rId7"/>
+    <sheet name="2-18" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +291,26 @@
   </si>
   <si>
     <t>面包*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆腐脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2袋纯奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一碗米饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:L21"/>
+  <dimension ref="D5:L22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:L16"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1081,6 +1102,35 @@
         <v>62.070000000000007</v>
       </c>
     </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22">
+        <v>116</v>
+      </c>
+      <c r="F22">
+        <v>2.6</v>
+      </c>
+      <c r="G22">
+        <v>25.6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22">
+        <f>E22*1.5</f>
+        <v>174</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22:L22" si="12">F22*1.5</f>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="12"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1093,7 +1143,7 @@
   <dimension ref="C6:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:E14"/>
+      <selection activeCell="C11" sqref="C11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1871,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2022,4 +2072,168 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <f>2*7.049</f>
+        <v>14.098000000000001</v>
+      </c>
+      <c r="E4">
+        <f>2*1.484</f>
+        <v>2.968</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E5">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6">
+        <v>5.7</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>2*4.8</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <f>4*1.246</f>
+        <v>4.984</v>
+      </c>
+      <c r="E8">
+        <f>4*18.512</f>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <f>2*4.98</f>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E9">
+        <f>2*34.86</f>
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <f>5*2.72</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="E10">
+        <f>5*13.76</f>
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="E11">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="E12">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E13">
+        <f>2*26.2</f>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D4:D15)</f>
+        <v>163.762</v>
+      </c>
+      <c r="E16">
+        <f>SUM(E4:E15)</f>
+        <v>418.58599999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="参考" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,8 @@
     <sheet name="2-16" sheetId="6" r:id="rId6"/>
     <sheet name="2-17" sheetId="7" r:id="rId7"/>
     <sheet name="2-18" sheetId="8" r:id="rId8"/>
+    <sheet name="2-19" sheetId="9" r:id="rId9"/>
+    <sheet name="template" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="102">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,11 +84,311 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>素馅饺子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个/100g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1碗豆腐脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个牛肉包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个菜包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄焖鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半斤素馅饺子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总量：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2勺增肌粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一根香蕉/89g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1勺蜂蜜(5.0克)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1瓷勺(满)燕麦片(12.0克)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一袋纯奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉一根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50g蜂蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50g燕麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3勺增肌粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆拌面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一盘新疆拌面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖浇饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一盘盖浇饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个面包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个牛肉包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2袋纯奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉2根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆小面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增肌粉*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘸水面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3勺燕麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2勺增肌粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉4根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉4根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5笼屉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5笼屉蒸饺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个牛肉包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3勺燕麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆腐脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2袋纯奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一碗米饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半斤</t>
+  </si>
+  <si>
     <t>1碗黄焖鸡(250.0克)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素馅饺子</t>
+  </si>
+  <si>
+    <t>1碗黄焖鸡(250.0克)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中型鸡蛋/53g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒菜（250g）</t>
+  </si>
+  <si>
+    <t>冒菜（250g）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡路里</t>
+  </si>
+  <si>
+    <t>1碗豆腐脑(300.0克)</t>
+  </si>
+  <si>
+    <t>1个牛肉包/100g</t>
+  </si>
+  <si>
+    <t>1个香菇青菜包/90g</t>
+  </si>
+  <si>
+    <t>一根香蕉/89g</t>
+  </si>
+  <si>
+    <t>1勺蜂蜜(5.0克)</t>
+  </si>
+  <si>
+    <t>1瓷勺(满)燕麦片(12.0克)</t>
+  </si>
+  <si>
+    <t>一袋纯奶</t>
+  </si>
+  <si>
+    <t>一盘新疆拌面</t>
+  </si>
+  <si>
+    <t>一盘盖浇饭</t>
+  </si>
+  <si>
+    <t>一个面包</t>
+  </si>
+  <si>
+    <t>1.5笼屉</t>
+  </si>
+  <si>
+    <t>一碗米饭</t>
+  </si>
+  <si>
+    <t>5勺增肌粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1勺增肌粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸饺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1勺增肌粉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -94,223 +396,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>半斤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1个/100g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1碗豆腐脑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2个牛肉包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1个菜包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄焖鸡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半斤素馅饺子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总量：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5勺增肌粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1勺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2勺增肌粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一根香蕉/89g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香蕉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中型鸡蛋/53g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜂蜜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1勺蜂蜜(5.0克)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1瓷勺(满)燕麦片(12.0克)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燕麦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一袋纯奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香蕉一根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50g蜂蜜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50g燕麦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3勺增肌粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新疆拌面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一盘新疆拌面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盖浇饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一盘盖浇饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个面包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燕麦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个牛肉包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2袋纯奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香蕉2根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个鸡蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面包*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆小面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增肌粉*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘸水面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3勺燕麦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2勺增肌粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香蕉4根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香蕉4根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸饺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5笼屉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5笼屉蒸饺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面包*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个牛肉包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3勺燕麦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面包*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2个鸡蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆腐脑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2袋纯奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一碗米饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>米饭</t>
+    <t>1个三鲜虾肉包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中型鸡蛋/53g/个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1袋纯奶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +424,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,16 +439,43 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -350,12 +483,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -636,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:L22"/>
+  <dimension ref="D5:M23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -649,7 +861,7 @@
     <col min="13" max="13" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>0</v>
       </c>
@@ -668,8 +880,11 @@
       <c r="L5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -683,7 +898,7 @@
         <v>2.8</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="J6">
         <f>E6/100*53</f>
@@ -698,7 +913,7 @@
         <v>1.4839999999999998</v>
       </c>
     </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>8</v>
       </c>
@@ -727,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -753,7 +968,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>11</v>
       </c>
@@ -782,7 +997,7 @@
         <v>26.216999999999999</v>
       </c>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>13</v>
       </c>
@@ -796,7 +1011,7 @@
         <v>2.42</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="J10">
         <f>E10/100*250</f>
@@ -811,9 +1026,9 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>148.97</v>
@@ -825,24 +1040,24 @@
         <v>22.02</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="J11">
-        <f>E11*5</f>
-        <v>744.85</v>
+        <f>E11*2.5</f>
+        <v>372.42500000000001</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11:L11" si="4">F11*5</f>
-        <v>24.5</v>
+        <f t="shared" ref="K11:L11" si="4">F11*2.5</f>
+        <v>12.25</v>
       </c>
       <c r="L11">
         <f t="shared" si="4"/>
-        <v>110.1</v>
-      </c>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="E12">
         <v>223</v>
@@ -854,7 +1069,7 @@
         <v>29.1</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J12">
         <v>223</v>
@@ -866,9 +1081,12 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>25</v>
+        <v>89</v>
+      </c>
+      <c r="E13">
+        <v>840</v>
       </c>
       <c r="F13">
         <v>63</v>
@@ -877,7 +1095,11 @@
         <v>131</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>90</v>
+      </c>
+      <c r="J13">
+        <f>E13/5</f>
+        <v>168</v>
       </c>
       <c r="K13">
         <f>F13/5</f>
@@ -888,9 +1110,9 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>93</v>
@@ -902,7 +1124,7 @@
         <v>20.8</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J14">
         <f>E14/100*89</f>
@@ -917,9 +1139,9 @@
         <v>18.512</v>
       </c>
     </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>321</v>
@@ -931,7 +1153,7 @@
         <v>75.599999999999994</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J15">
         <f>E15/100*5</f>
@@ -946,9 +1168,9 @@
         <v>3.7799999999999994</v>
       </c>
     </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>377</v>
@@ -960,7 +1182,7 @@
         <v>61.6</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J16">
         <f>E16/100*12</f>
@@ -977,7 +1199,10 @@
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -988,7 +1213,7 @@
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>128.86000000000001</v>
@@ -1000,7 +1225,7 @@
         <v>12.8</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J18">
         <f>E18*3</f>
@@ -1017,7 +1242,7 @@
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>142</v>
@@ -1029,7 +1254,7 @@
         <v>17.5</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J19">
         <f>E19*4.5</f>
@@ -1046,7 +1271,7 @@
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <v>313</v>
@@ -1058,7 +1283,7 @@
         <v>58.1</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J20">
         <f>E20*0.6</f>
@@ -1075,7 +1300,7 @@
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="E21">
         <v>109.26</v>
@@ -1087,7 +1312,7 @@
         <v>20.69</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J21">
         <f>E21*3</f>
@@ -1098,13 +1323,13 @@
         <v>12.48</v>
       </c>
       <c r="L21">
-        <f t="shared" si="11"/>
+        <f>G21*3</f>
         <v>62.070000000000007</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>116</v>
@@ -1116,7 +1341,7 @@
         <v>25.6</v>
       </c>
       <c r="I22" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J22">
         <f>E22*1.5</f>
@@ -1131,7 +1356,757 @@
         <v>38.400000000000006</v>
       </c>
     </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23">
+        <v>68</v>
+      </c>
+      <c r="F23">
+        <v>3.97</v>
+      </c>
+      <c r="G23">
+        <v>3.22</v>
+      </c>
+      <c r="I23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23">
+        <f>2.5*E23</f>
+        <v>170</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:L23" si="13">2.5*F23</f>
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="13"/>
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <f>76.32*D3</f>
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <f>7.049*D3</f>
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <f>76.32*D3</f>
+        <v>76.319999999999993</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <f>F3*H3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <f>G3*H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I20" si="0">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f>F4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <f>215.96*D5</f>
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <f>215.96*D5</f>
+        <v>215.96</v>
+      </c>
+      <c r="G5" s="8">
+        <f>215.96*D5</f>
+        <v>215.96</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <f>F5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f>F6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f>F7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f>F8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f>F9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f>F10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <f>F11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f>F12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f>F13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f>F14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f>F15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f>F16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f>G16*H16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <f>F17*H17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f>G17*H17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f>F18*H18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f>G18*H18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f>F19*H19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f>G19*H19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>170</v>
+      </c>
+      <c r="F20" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="6">
+        <f>SUM(I3:I20)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <f>SUM(J3:J20)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <f>SUM(K3:K20)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D21:H21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1143,7 +2118,7 @@
   <dimension ref="C6:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:E11"/>
+      <selection activeCell="C12" sqref="C12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1174,7 +2149,7 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>5.7</v>
@@ -1185,7 +2160,7 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <f>2*11.94</f>
@@ -1198,7 +2173,7 @@
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>7.0830000000000002</v>
@@ -1209,7 +2184,7 @@
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>44.500000000000007</v>
@@ -1220,7 +2195,7 @@
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>24.5</v>
@@ -1231,7 +2206,7 @@
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <f>2*12.6</f>
@@ -1244,7 +2219,7 @@
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <f>2*12.6</f>
@@ -1257,7 +2232,7 @@
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>1.2459999999999998</v>
@@ -1268,7 +2243,7 @@
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <f>10*0.02</f>
@@ -1281,7 +2256,7 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <f>1.8/12*50</f>
@@ -1294,7 +2269,7 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <f>SUM(D7:D17)</f>
@@ -1336,7 +2311,7 @@
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <f>4*7.049</f>
@@ -1349,7 +2324,7 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <f>3*11.94</f>
@@ -1362,7 +2337,7 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <f>2*1.246</f>
@@ -1375,7 +2350,7 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <f>2*3</f>
@@ -1388,7 +2363,7 @@
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <f>3*12.6</f>
@@ -1401,7 +2376,7 @@
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D11">
         <v>12.18</v>
@@ -1412,7 +2387,7 @@
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>21.599999999999998</v>
@@ -1423,7 +2398,7 @@
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>4.9800000000000004</v>
@@ -1434,7 +2409,7 @@
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <f>1.8/12*50</f>
@@ -1447,7 +2422,7 @@
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <f>SUM(D6:D14)</f>
@@ -1488,7 +2463,7 @@
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <f>4*7.049</f>
@@ -1501,7 +2476,7 @@
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <f>3*11.94</f>
@@ -1514,7 +2489,7 @@
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <f>2*1.246</f>
@@ -1527,7 +2502,7 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <f>2*3</f>
@@ -1540,7 +2515,7 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <f>2*4.98</f>
@@ -1553,7 +2528,7 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <f>2*1.246</f>
@@ -1566,7 +2541,7 @@
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <f>5*2.72</f>
@@ -1579,7 +2554,7 @@
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <f>3.5*2.7</f>
@@ -1592,7 +2567,7 @@
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <f>2*12.6</f>
@@ -1605,7 +2580,7 @@
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <f>SUM(D4:D13)</f>
@@ -1646,7 +2621,7 @@
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <f>4*7.049</f>
@@ -1659,7 +2634,7 @@
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <f>3*11.94</f>
@@ -1672,7 +2647,7 @@
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <f>4*1.246</f>
@@ -1685,7 +2660,7 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <f>2*3</f>
@@ -1698,7 +2673,7 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <f>2*4.98</f>
@@ -1711,7 +2686,7 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>12.18</v>
@@ -1722,7 +2697,7 @@
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>21.599999999999998</v>
@@ -1733,7 +2708,7 @@
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <f>3*1.8</f>
@@ -1746,7 +2721,7 @@
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>12.6</v>
@@ -1757,7 +2732,7 @@
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <f>SUM(D4:D13)</f>
@@ -1797,7 +2772,7 @@
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <f>4*7.049</f>
@@ -1810,7 +2785,7 @@
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <f>3*11.94</f>
@@ -1823,7 +2798,7 @@
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D6">
         <f>4*1.246</f>
@@ -1836,7 +2811,7 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <f>2*3</f>
@@ -1849,7 +2824,7 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <f>1*4.98</f>
@@ -1862,7 +2837,7 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <f>5*2.72</f>
@@ -1875,7 +2850,7 @@
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D10">
         <v>12.48</v>
@@ -1886,7 +2861,7 @@
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <f>2*12.6</f>
@@ -1899,7 +2874,7 @@
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <f>SUM(D4:D13)</f>
@@ -1922,7 +2897,7 @@
   <dimension ref="C3:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E9"/>
+      <selection activeCell="C12" sqref="C12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1941,7 +2916,7 @@
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <f>4*7.049</f>
@@ -1954,7 +2929,7 @@
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <f>3*11.94</f>
@@ -1967,7 +2942,7 @@
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <f>4*1.246</f>
@@ -1980,7 +2955,7 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <f>2*3</f>
@@ -1993,7 +2968,7 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <f>2*4.98</f>
@@ -2006,7 +2981,7 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <f>5*2.72</f>
@@ -2019,7 +2994,7 @@
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>12.18</v>
@@ -2030,7 +3005,7 @@
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <f>2*12.6</f>
@@ -2043,7 +3018,7 @@
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D12">
         <f>3*1.8</f>
@@ -2056,7 +3031,7 @@
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <f>SUM(D4:D13)</f>
@@ -2078,7 +3053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2096,7 +3073,7 @@
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <f>2*7.049</f>
@@ -2109,7 +3086,7 @@
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <f>3*11.94</f>
@@ -2122,7 +3099,7 @@
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>5.7</v>
@@ -2133,7 +3110,7 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <f>2*3</f>
@@ -2146,7 +3123,7 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <f>4*1.246</f>
@@ -2159,7 +3136,7 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <f>2*4.98</f>
@@ -2172,7 +3149,7 @@
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <f>5*2.72</f>
@@ -2196,7 +3173,7 @@
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>3.9000000000000004</v>
@@ -2207,7 +3184,7 @@
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <f>2*12.6</f>
@@ -2220,7 +3197,7 @@
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <f>SUM(D4:D15)</f>
@@ -2229,6 +3206,172 @@
       <c r="E16">
         <f>SUM(E4:E15)</f>
         <v>418.58599999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <f>2*7.049</f>
+        <v>14.098000000000001</v>
+      </c>
+      <c r="E4">
+        <f>2*1.484</f>
+        <v>2.968</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E5">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <f>4*1.246</f>
+        <v>4.984</v>
+      </c>
+      <c r="E6">
+        <f>4*18.512</f>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <f>2*4.98</f>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E7">
+        <f>2*34.86</f>
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="E8">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="E9">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>12.25</v>
+      </c>
+      <c r="E10">
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <f>3*1.8</f>
+        <v>5.4</v>
+      </c>
+      <c r="E11">
+        <f>3*7.392</f>
+        <v>22.176000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E12">
+        <f>2*26.2</f>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13">
+        <f>1*3</f>
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f>1*4.8</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D4:D14)</f>
+        <v>124.53700000000001</v>
+      </c>
+      <c r="E15">
+        <f>SUM(E4:E14)</f>
+        <v>424.21199999999999</v>
       </c>
     </row>
   </sheetData>

--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="参考" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,8 @@
     <sheet name="2-17" sheetId="7" r:id="rId7"/>
     <sheet name="2-18" sheetId="8" r:id="rId8"/>
     <sheet name="2-19" sheetId="9" r:id="rId9"/>
-    <sheet name="template" sheetId="10" r:id="rId10"/>
+    <sheet name="2-20" sheetId="11" r:id="rId10"/>
+    <sheet name="template" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="104">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +418,14 @@
   </si>
   <si>
     <t>1袋纯奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一碗重庆小面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半斤素饺子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -851,7 +860,7 @@
   <dimension ref="D5:M23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J6" sqref="J6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1319,7 +1328,7 @@
         <v>327.78000000000003</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21:L21" si="11">F21*3</f>
+        <f t="shared" ref="K21" si="11">F21*3</f>
         <v>12.48</v>
       </c>
       <c r="L21">
@@ -1394,9 +1403,763 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K21"/>
+  <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I21" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>431.92</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>23.88</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>151.34399999999999</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>26.216999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>331.08000000000004</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9839999999999991</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>180.96</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>29.567999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>386.58000000000004</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>12.18</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>375.59999999999997</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2498.7640000000001</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>131.483</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>404.68899999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:G20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1453,16 +2216,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="8">
-        <f>76.32*D3</f>
         <v>76.319999999999993</v>
       </c>
       <c r="F3" s="8">
-        <f>7.049*D3</f>
         <v>7.0490000000000004</v>
       </c>
       <c r="G3" s="8">
-        <f>76.32*D3</f>
-        <v>76.319999999999993</v>
+        <v>1.4839999999999998</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -1472,11 +2232,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <f>F3*H3</f>
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <f>G3*H3</f>
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
         <v>0</v>
       </c>
     </row>
@@ -1505,15 +2265,15 @@
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I20" si="0">E4*H4</f>
+        <f t="shared" ref="I4:I21" si="2">E4*H4</f>
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <f>F4*H4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f>G4*H4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1528,30 +2288,27 @@
         <v>1</v>
       </c>
       <c r="E5" s="8">
-        <f>215.96*D5</f>
         <v>215.96</v>
       </c>
       <c r="F5" s="8">
-        <f>215.96*D5</f>
-        <v>215.96</v>
+        <v>11.94</v>
       </c>
       <c r="G5" s="8">
-        <f>215.96*D5</f>
-        <v>215.96</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
       </c>
       <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="4">
-        <f>F5*H5</f>
-        <v>0</v>
-      </c>
       <c r="K5" s="4">
-        <f>G5*H5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1578,15 +2335,15 @@
         <v>0</v>
       </c>
       <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="4">
-        <f>F6*H6</f>
-        <v>0</v>
-      </c>
       <c r="K6" s="4">
-        <f>G6*H6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1613,15 +2370,15 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="4">
-        <f>F7*H7</f>
-        <v>0</v>
-      </c>
       <c r="K7" s="4">
-        <f>G7*H7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1648,15 +2405,15 @@
         <v>0</v>
       </c>
       <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="4">
-        <f>F8*H8</f>
-        <v>0</v>
-      </c>
       <c r="K8" s="4">
-        <f>G8*H8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1683,15 +2440,15 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="4">
-        <f>F9*H9</f>
-        <v>0</v>
-      </c>
       <c r="K9" s="4">
-        <f>G9*H9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1718,15 +2475,15 @@
         <v>0</v>
       </c>
       <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="4">
-        <f>F10*H10</f>
-        <v>0</v>
-      </c>
       <c r="K10" s="4">
-        <f>G10*H10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1753,15 +2510,15 @@
         <v>0</v>
       </c>
       <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="4">
-        <f>F11*H11</f>
-        <v>0</v>
-      </c>
       <c r="K11" s="4">
-        <f>G11*H11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1788,15 +2545,15 @@
         <v>0</v>
       </c>
       <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="4">
-        <f>F12*H12</f>
-        <v>0</v>
-      </c>
       <c r="K12" s="4">
-        <f>G12*H12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1823,15 +2580,15 @@
         <v>0</v>
       </c>
       <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="4">
-        <f>F13*H13</f>
-        <v>0</v>
-      </c>
       <c r="K13" s="4">
-        <f>G13*H13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1858,15 +2615,15 @@
         <v>0</v>
       </c>
       <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="4">
-        <f>F14*H14</f>
-        <v>0</v>
-      </c>
       <c r="K14" s="4">
-        <f>G14*H14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1893,15 +2650,15 @@
         <v>0</v>
       </c>
       <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="4">
-        <f>F15*H15</f>
-        <v>0</v>
-      </c>
       <c r="K15" s="4">
-        <f>G15*H15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1928,15 +2685,15 @@
         <v>0</v>
       </c>
       <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="4">
-        <f>F16*H16</f>
-        <v>0</v>
-      </c>
       <c r="K16" s="4">
-        <f>G16*H16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1963,15 +2720,15 @@
         <v>0</v>
       </c>
       <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="4">
-        <f>F17*H17</f>
-        <v>0</v>
-      </c>
       <c r="K17" s="4">
-        <f>G17*H17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1998,15 +2755,15 @@
         <v>0</v>
       </c>
       <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="4">
-        <f>F18*H18</f>
-        <v>0</v>
-      </c>
       <c r="K18" s="4">
-        <f>G18*H18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2033,15 +2790,15 @@
         <v>0</v>
       </c>
       <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="4">
-        <f>F19*H19</f>
-        <v>0</v>
-      </c>
       <c r="K19" s="4">
-        <f>G19*H19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2050,25 +2807,27 @@
         <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>
       </c>
       <c r="E20" s="8">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="F20" s="8">
-        <v>9.9250000000000007</v>
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
       </c>
       <c r="G20" s="8">
-        <v>8.0500000000000007</v>
+        <f>2.5*13.76</f>
+        <v>34.4</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="0"/>
+        <f>E20*H20</f>
         <v>0</v>
       </c>
       <c r="J20" s="4">
@@ -2081,31 +2840,66 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="6">
-        <f>SUM(I3:I20)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <f>SUM(J3:J20)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
-        <f>SUM(K3:K20)</f>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2445,7 +3239,7 @@
   <dimension ref="C3:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2897,7 +3691,7 @@
   <dimension ref="C3:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:E12"/>
+      <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3219,7 +4013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="参考" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,9 @@
     <sheet name="2-18" sheetId="8" r:id="rId8"/>
     <sheet name="2-19" sheetId="9" r:id="rId9"/>
     <sheet name="2-20" sheetId="11" r:id="rId10"/>
-    <sheet name="template" sheetId="10" r:id="rId11"/>
+    <sheet name="2-21" sheetId="12" r:id="rId11"/>
+    <sheet name="2-22" sheetId="13" r:id="rId12"/>
+    <sheet name="template" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="104">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -860,7 +862,7 @@
   <dimension ref="D5:M23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:L6"/>
+      <selection activeCell="I20" sqref="I20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1402,6 +1404,1510 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>431.92</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>23.88</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>151.34399999999999</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>26.216999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>331.08000000000004</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9839999999999991</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>180.96</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>29.567999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>386.58000000000004</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>12.18</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>375.59999999999997</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2498.7640000000001</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>131.483</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>404.68899999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>331.08000000000004</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9839999999999991</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>327.78000000000003</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>12.48</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>62.070000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>3150.42</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>149.22</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>483.98399999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -1511,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I21" si="2">E4*H4</f>
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
         <v>0</v>
       </c>
       <c r="J4" s="4">
@@ -1543,19 +3049,19 @@
         <v>32.200000000000003</v>
       </c>
       <c r="H5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="2"/>
-        <v>431.92</v>
+        <v>647.88</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>23.88</v>
+        <v>35.82</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>64.400000000000006</v>
+        <v>96.600000000000009</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -1578,19 +3084,19 @@
         <v>26.216999999999999</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="2"/>
-        <v>151.34399999999999</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>7.0830000000000002</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="1"/>
-        <v>26.216999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -1633,7 +3139,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -1718,19 +3224,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>52.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -1753,19 +3259,19 @@
         <v>18.512</v>
       </c>
       <c r="H11" s="3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="2"/>
-        <v>331.08000000000004</v>
+        <v>289.69500000000005</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>4.9839999999999991</v>
+        <v>4.3609999999999989</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>74.048000000000002</v>
+        <v>64.792000000000002</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -1823,19 +3329,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>180.96</v>
+        <v>226.20000000000002</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>7.1999999999999993</v>
+        <v>9</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>29.567999999999998</v>
+        <v>36.959999999999994</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -1890,7 +3396,7 @@
         <v>12.18</v>
       </c>
       <c r="G15" s="8">
-        <v>38.4</v>
+        <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -1905,7 +3411,7 @@
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>38.4</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -1928,19 +3434,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -1963,19 +3469,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>375.59999999999997</v>
+        <v>563.4</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>9.9600000000000009</v>
+        <v>14.940000000000001</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>69.72</v>
+        <v>104.58</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -2070,7 +3576,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -2078,11 +3584,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>6.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -2132,15 +3638,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2498.7640000000001</v>
+        <v>3058.0350000000003</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>131.483</v>
+        <v>132.09700000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>404.68899999999996</v>
+        <v>435.61799999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +3659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -2265,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I21" si="2">E4*H4</f>
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
         <v>0</v>
       </c>
       <c r="J4" s="4">

--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="参考" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="2-20" sheetId="11" r:id="rId10"/>
     <sheet name="2-21" sheetId="12" r:id="rId11"/>
     <sheet name="2-22" sheetId="13" r:id="rId12"/>
-    <sheet name="template" sheetId="10" r:id="rId13"/>
+    <sheet name="2-23" sheetId="14" r:id="rId13"/>
+    <sheet name="template" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="104">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2911,7 +2912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3660,6 +3661,760 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>289.69500000000005</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3609999999999989</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>64.792000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>226.20000000000002</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>36.959999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>386.58000000000004</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>12.18</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2419.0350000000003</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>117.29700000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>391.26799999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>

--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="参考" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="2-21" sheetId="12" r:id="rId11"/>
     <sheet name="2-22" sheetId="13" r:id="rId12"/>
     <sheet name="2-23" sheetId="14" r:id="rId13"/>
-    <sheet name="template" sheetId="10" r:id="rId14"/>
+    <sheet name="2-28" sheetId="15" r:id="rId14"/>
+    <sheet name="3-1" sheetId="16" r:id="rId15"/>
+    <sheet name="template" sheetId="10" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="104">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3664,7 +3666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4415,6 +4417,1514 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>386.58000000000004</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>12.18</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2790.4500000000003</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>116.47399999999999</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>379.80199999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2913.87</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>136.39400000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>437.00200000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>

--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="参考" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="2-23" sheetId="14" r:id="rId13"/>
     <sheet name="2-28" sheetId="15" r:id="rId14"/>
     <sheet name="3-1" sheetId="16" r:id="rId15"/>
-    <sheet name="template" sheetId="10" r:id="rId16"/>
+    <sheet name="3-2" sheetId="17" r:id="rId16"/>
+    <sheet name="template" sheetId="10" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="104">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5174,7 +5175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -5925,6 +5926,758 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>226.20000000000002</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>36.959999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>1601.67</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>90.454000000000008</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>272.63200000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>

--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="4" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="参考" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <sheet name="2-28" sheetId="15" r:id="rId14"/>
     <sheet name="3-1" sheetId="16" r:id="rId15"/>
     <sheet name="3-2" sheetId="17" r:id="rId16"/>
-    <sheet name="template" sheetId="10" r:id="rId17"/>
+    <sheet name="3-3" sheetId="18" r:id="rId17"/>
+    <sheet name="3-4" sheetId="19" r:id="rId18"/>
+    <sheet name="3-5" sheetId="20" r:id="rId19"/>
+    <sheet name="template" sheetId="10" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="104">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5929,7 +5932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6681,8 +6684,760 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>372.42500000000001</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2776.2950000000001</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>116.544</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>396.452</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:G20"/>
+      <selection activeCell="J22" sqref="J22:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6690,11 +7445,11 @@
     <col min="2" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="24.44140625" customWidth="1"/>
     <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
     <col min="6" max="6" width="10.21875" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -6705,7 +7460,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -6749,19 +7504,19 @@
         <v>1.4839999999999998</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3" s="4">
         <f>E3*H3</f>
-        <v>0</v>
+        <v>305.27999999999997</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>0</v>
+        <v>28.196000000000002</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>0</v>
+        <v>5.9359999999999991</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -6821,19 +7576,19 @@
         <v>32.200000000000003</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>431.92</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23.88</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -6856,19 +7611,19 @@
         <v>26.216999999999999</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>151.34399999999999</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.0830000000000002</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.216999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -6981,7 +7736,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -6996,19 +7751,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -7031,19 +7786,19 @@
         <v>18.512</v>
       </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>165.54000000000002</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4919999999999995</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37.024000000000001</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -7101,19 +7856,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>226.20000000000002</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.959999999999994</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -7136,7 +7891,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -7144,11 +7899,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -7171,19 +7926,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -7241,19 +7996,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>187.79999999999998</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34.86</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -7276,19 +8031,19 @@
         <v>62.070000000000007</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>327.78000000000003</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62.070000000000007</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -7410,15 +8165,769 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>0</v>
+        <v>2518.4440000000004</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>0</v>
+        <v>128.49100000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>0</v>
+        <v>363.06700000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>45</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>5.7</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>446.1</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>44.500000000000007</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>372.42500000000001</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>165.54000000000002</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4919999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>37.024000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>226.20000000000002</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>36.959999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>3107.8249999999998</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>181.09799999999998</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>399.4</v>
       </c>
     </row>
   </sheetData>
@@ -7605,6 +9114,760 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:E20"/>

--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="4" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="6" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="参考" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <sheet name="3-3" sheetId="18" r:id="rId17"/>
     <sheet name="3-4" sheetId="19" r:id="rId18"/>
     <sheet name="3-5" sheetId="20" r:id="rId19"/>
-    <sheet name="template" sheetId="10" r:id="rId20"/>
+    <sheet name="3-6" sheetId="21" r:id="rId20"/>
+    <sheet name="3-7" sheetId="22" r:id="rId21"/>
+    <sheet name="template" sheetId="10" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="104">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8190,7 +8192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -9115,6 +9117,1512 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>372.42500000000001</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>504</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2641.2950000000001</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>136.14400000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>413.50199999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>180.96</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>29.567999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>386.58000000000004</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>12.18</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2668.41</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>134.07400000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>417.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>

--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -1,34 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="6" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="参考" sheetId="1" r:id="rId1"/>
-    <sheet name="2-12" sheetId="2" r:id="rId2"/>
-    <sheet name="2-13" sheetId="3" r:id="rId3"/>
-    <sheet name="2-14" sheetId="4" r:id="rId4"/>
-    <sheet name="2-15" sheetId="5" r:id="rId5"/>
-    <sheet name="2-16" sheetId="6" r:id="rId6"/>
-    <sheet name="2-17" sheetId="7" r:id="rId7"/>
-    <sheet name="2-18" sheetId="8" r:id="rId8"/>
-    <sheet name="2-19" sheetId="9" r:id="rId9"/>
-    <sheet name="2-20" sheetId="11" r:id="rId10"/>
-    <sheet name="2-21" sheetId="12" r:id="rId11"/>
-    <sheet name="2-22" sheetId="13" r:id="rId12"/>
-    <sheet name="2-23" sheetId="14" r:id="rId13"/>
-    <sheet name="2-28" sheetId="15" r:id="rId14"/>
-    <sheet name="3-1" sheetId="16" r:id="rId15"/>
-    <sheet name="3-2" sheetId="17" r:id="rId16"/>
-    <sheet name="3-3" sheetId="18" r:id="rId17"/>
-    <sheet name="3-4" sheetId="19" r:id="rId18"/>
-    <sheet name="3-5" sheetId="20" r:id="rId19"/>
-    <sheet name="3-6" sheetId="21" r:id="rId20"/>
-    <sheet name="3-7" sheetId="22" r:id="rId21"/>
-    <sheet name="template" sheetId="10" r:id="rId22"/>
+    <sheet name="3-9" sheetId="24" r:id="rId2"/>
+    <sheet name="2-12" sheetId="2" r:id="rId3"/>
+    <sheet name="2-13" sheetId="3" r:id="rId4"/>
+    <sheet name="2-14" sheetId="4" r:id="rId5"/>
+    <sheet name="2-15" sheetId="5" r:id="rId6"/>
+    <sheet name="2-16" sheetId="6" r:id="rId7"/>
+    <sheet name="2-17" sheetId="7" r:id="rId8"/>
+    <sheet name="2-18" sheetId="8" r:id="rId9"/>
+    <sheet name="2-19" sheetId="9" r:id="rId10"/>
+    <sheet name="2-20" sheetId="11" r:id="rId11"/>
+    <sheet name="2-21" sheetId="12" r:id="rId12"/>
+    <sheet name="2-22" sheetId="13" r:id="rId13"/>
+    <sheet name="2-23" sheetId="14" r:id="rId14"/>
+    <sheet name="2-28" sheetId="15" r:id="rId15"/>
+    <sheet name="3-1" sheetId="16" r:id="rId16"/>
+    <sheet name="3-2" sheetId="17" r:id="rId17"/>
+    <sheet name="3-3" sheetId="18" r:id="rId18"/>
+    <sheet name="3-4" sheetId="19" r:id="rId19"/>
+    <sheet name="3-5" sheetId="20" r:id="rId20"/>
+    <sheet name="3-6" sheetId="21" r:id="rId21"/>
+    <sheet name="3-7" sheetId="22" r:id="rId22"/>
+    <sheet name="3-8" sheetId="23" r:id="rId23"/>
+    <sheet name="template" sheetId="10" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="104">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1414,750 +1416,164 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
+  <dimension ref="C3:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <f>2*7.049</f>
+        <v>14.098000000000001</v>
+      </c>
+      <c r="E4">
+        <f>2*1.484</f>
+        <v>2.968</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E5">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <f>4*1.246</f>
+        <v>4.984</v>
+      </c>
+      <c r="E6">
+        <f>4*18.512</f>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <f>2*4.98</f>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E7">
+        <f>2*34.86</f>
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="E8">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="E9">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>12.25</v>
+      </c>
+      <c r="E10">
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <f>3*1.8</f>
+        <v>5.4</v>
+      </c>
+      <c r="E11">
+        <f>3*7.392</f>
+        <v>22.176000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E12">
+        <f>2*26.2</f>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13">
+        <f>1*3</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>431.92</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>23.88</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>64.400000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>151.34399999999999</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>26.216999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>331.08000000000004</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>4.9839999999999991</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>180.96</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>29.567999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="E13">
+        <f>1*4.8</f>
         <v>4.8</v>
       </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>12.18</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>375.59999999999997</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>69.72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2498.7640000000001</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>131.483</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>404.68899999999996</v>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D4:D14)</f>
+        <v>124.53700000000001</v>
+      </c>
+      <c r="E15">
+        <f>SUM(E4:E14)</f>
+        <v>424.21199999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2306,19 +1722,19 @@
         <v>32.200000000000003</v>
       </c>
       <c r="H5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="2"/>
-        <v>647.88</v>
+        <v>431.92</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>35.82</v>
+        <v>23.88</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -2341,19 +1757,19 @@
         <v>26.216999999999999</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>151.34399999999999</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.0830000000000002</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.216999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -2396,7 +1812,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -2586,19 +2002,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>180.96</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29.567999999999998</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -2653,22 +2069,22 @@
         <v>12.18</v>
       </c>
       <c r="G15" s="8">
-        <v>38.400000000000006</v>
+        <v>38.4</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -2691,19 +2107,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -2726,19 +2142,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>563.4</v>
+        <v>375.59999999999997</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>104.58</v>
+        <v>69.72</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -2761,19 +2177,19 @@
         <v>62.070000000000007</v>
       </c>
       <c r="H18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>327.78000000000003</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>12.48</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>62.070000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -2833,7 +2249,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -2841,11 +2257,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>0</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -2895,15 +2311,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>3150.42</v>
+        <v>2498.7640000000001</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>149.22</v>
+        <v>131.483</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>483.98399999999998</v>
+        <v>404.68899999999996</v>
       </c>
     </row>
   </sheetData>
@@ -3233,19 +2649,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -3268,19 +2684,19 @@
         <v>18.512</v>
       </c>
       <c r="H11" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="2"/>
-        <v>289.69500000000005</v>
+        <v>331.08000000000004</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>4.3609999999999989</v>
+        <v>4.9839999999999991</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>64.792000000000002</v>
+        <v>74.048000000000002</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -3338,19 +2754,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>226.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>36.959999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -3408,19 +2824,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>12.18</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -3513,19 +2929,19 @@
         <v>62.070000000000007</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>327.78000000000003</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62.070000000000007</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -3647,15 +3063,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>3058.0350000000003</v>
+        <v>3150.42</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>132.09700000000001</v>
+        <v>149.22</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>435.61799999999999</v>
+        <v>483.98399999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3669,6 +3085,758 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>289.69500000000005</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3609999999999989</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>64.792000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>226.20000000000002</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>36.959999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>386.58000000000004</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>12.18</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>3058.0350000000003</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>132.09700000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>435.61799999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -4410,760 +4578,6 @@
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
         <v>391.26799999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>647.88</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>35.82</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>248.31000000000003</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7379999999999995</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>55.536000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>12.18</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>639</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>78.75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>563.4</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>104.58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2790.4500000000003</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>116.47399999999999</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>379.80199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -5204,7 +4618,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -5480,7 +4894,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -5495,19 +4909,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>52.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -5635,7 +5049,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -5643,11 +5057,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -5670,19 +5084,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -5810,19 +5224,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>3.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -5909,15 +5323,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2913.87</v>
+        <v>2790.4500000000003</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>136.39400000000001</v>
+        <v>116.47399999999999</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>437.00200000000007</v>
+        <v>379.80199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -5934,7 +5348,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6247,19 +5663,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -6352,19 +5768,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>226.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>36.959999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -6457,19 +5873,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -6492,19 +5908,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>563.4</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.940000000000001</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104.58</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -6599,7 +6015,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -6607,11 +6023,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>6.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -6661,15 +6077,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>1601.67</v>
+        <v>2913.87</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>90.454000000000008</v>
+        <v>136.39400000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>272.63200000000001</v>
+        <v>437.00200000000007</v>
       </c>
     </row>
   </sheetData>
@@ -6929,19 +6345,19 @@
         <v>55.05</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
-        <v>372.42500000000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>55.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -7104,19 +6520,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>226.20000000000002</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.959999999999994</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -7139,7 +6555,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -7147,11 +6563,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -7209,19 +6625,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -7244,19 +6660,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>563.4</v>
+        <v>0</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>104.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -7314,19 +6730,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -7351,7 +6767,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -7359,11 +6775,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>0</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -7413,15 +6829,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2776.2950000000001</v>
+        <v>1601.67</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>116.544</v>
+        <v>90.454000000000008</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>396.452</v>
+        <v>272.63200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7435,6 +6851,758 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>372.42500000000001</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2776.2950000000001</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>116.544</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>396.452</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -8188,7 +8356,761 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2739.87</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>136.29400000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>428.20199999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -8942,181 +9864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:E18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <f>2*7.049</f>
-        <v>14.098000000000001</v>
-      </c>
-      <c r="E7">
-        <f>2*1.484</f>
-        <v>2.968</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>5.7</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <f>2*11.94</f>
-        <v>23.88</v>
-      </c>
-      <c r="E9">
-        <f>2*32.2</f>
-        <v>64.400000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="E10">
-        <v>26.216999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="E11">
-        <v>6.05</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>24.5</v>
-      </c>
-      <c r="E12">
-        <v>110.1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13">
-        <f>2*12.6</f>
-        <v>25.2</v>
-      </c>
-      <c r="E13">
-        <f>2*26.2</f>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <f>2*12.6</f>
-        <v>25.2</v>
-      </c>
-      <c r="E14">
-        <f>2*26.2</f>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="E15">
-        <v>18.512</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16">
-        <f>10*0.02</f>
-        <v>0.2</v>
-      </c>
-      <c r="E16">
-        <f>10*3.78</f>
-        <v>37.799999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <f>1.8/12*50</f>
-        <v>7.5</v>
-      </c>
-      <c r="E17">
-        <f>7.392/12*50</f>
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18">
-        <f>SUM(D7:D17)</f>
-        <v>179.10699999999997</v>
-      </c>
-      <c r="E18">
-        <f>SUM(E7:E17)</f>
-        <v>401.64699999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -9868,11 +10616,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -10622,7 +11370,761 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2403.87</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>111.09399999999999</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>375.80199999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -11378,6 +12880,180 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f>2*7.049</f>
+        <v>14.098000000000001</v>
+      </c>
+      <c r="E7">
+        <f>2*1.484</f>
+        <v>2.968</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>5.7</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <f>2*11.94</f>
+        <v>23.88</v>
+      </c>
+      <c r="E9">
+        <f>2*32.2</f>
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="E10">
+        <v>26.216999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="E11">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>24.5</v>
+      </c>
+      <c r="E12">
+        <v>110.1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E13">
+        <f>2*26.2</f>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E14">
+        <f>2*26.2</f>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="E15">
+        <v>18.512</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <f>10*0.02</f>
+        <v>0.2</v>
+      </c>
+      <c r="E16">
+        <f>10*3.78</f>
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <f>1.8/12*50</f>
+        <v>7.5</v>
+      </c>
+      <c r="E17">
+        <f>7.392/12*50</f>
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D7:D17)</f>
+        <v>179.10699999999997</v>
+      </c>
+      <c r="E18">
+        <f>SUM(E7:E17)</f>
+        <v>401.64699999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11529,7 +13205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -11687,7 +13363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -11839,7 +13515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -11981,7 +13657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -12138,7 +13814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E16"/>
   <sheetViews>
@@ -12302,170 +13978,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E15"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4">
-        <f>2*7.049</f>
-        <v>14.098000000000001</v>
-      </c>
-      <c r="E4">
-        <f>2*1.484</f>
-        <v>2.968</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5">
-        <f>3*11.94</f>
-        <v>35.82</v>
-      </c>
-      <c r="E5">
-        <f>3*32.2</f>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6">
-        <f>4*1.246</f>
-        <v>4.984</v>
-      </c>
-      <c r="E6">
-        <f>4*18.512</f>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7">
-        <f>2*4.98</f>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="E7">
-        <f>2*34.86</f>
-        <v>69.72</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="E8">
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="E9">
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>12.25</v>
-      </c>
-      <c r="E10">
-        <v>55.05</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11">
-        <f>3*1.8</f>
-        <v>5.4</v>
-      </c>
-      <c r="E11">
-        <f>3*7.392</f>
-        <v>22.176000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12">
-        <f>2*12.6</f>
-        <v>25.2</v>
-      </c>
-      <c r="E12">
-        <f>2*26.2</f>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13">
-        <f>1*3</f>
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <f>1*4.8</f>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15">
-        <f>SUM(D4:D14)</f>
-        <v>124.53700000000001</v>
-      </c>
-      <c r="E15">
-        <f>SUM(E4:E14)</f>
-        <v>424.21199999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -9,29 +9,30 @@
   <sheets>
     <sheet name="template" sheetId="10" r:id="rId1"/>
     <sheet name="参考" sheetId="1" r:id="rId2"/>
-    <sheet name="3-10" sheetId="25" r:id="rId3"/>
-    <sheet name="3-9" sheetId="24" r:id="rId4"/>
-    <sheet name="2-12" sheetId="2" r:id="rId5"/>
-    <sheet name="2-13" sheetId="3" r:id="rId6"/>
-    <sheet name="2-14" sheetId="4" r:id="rId7"/>
-    <sheet name="2-15" sheetId="5" r:id="rId8"/>
-    <sheet name="2-16" sheetId="6" r:id="rId9"/>
-    <sheet name="2-17" sheetId="7" r:id="rId10"/>
-    <sheet name="2-18" sheetId="8" r:id="rId11"/>
-    <sheet name="2-19" sheetId="9" r:id="rId12"/>
-    <sheet name="2-20" sheetId="11" r:id="rId13"/>
-    <sheet name="2-21" sheetId="12" r:id="rId14"/>
-    <sheet name="2-22" sheetId="13" r:id="rId15"/>
-    <sheet name="2-23" sheetId="14" r:id="rId16"/>
-    <sheet name="2-28" sheetId="15" r:id="rId17"/>
-    <sheet name="3-1" sheetId="16" r:id="rId18"/>
-    <sheet name="3-2" sheetId="17" r:id="rId19"/>
-    <sheet name="3-3" sheetId="18" r:id="rId20"/>
-    <sheet name="3-4" sheetId="19" r:id="rId21"/>
-    <sheet name="3-5" sheetId="20" r:id="rId22"/>
-    <sheet name="3-6" sheetId="21" r:id="rId23"/>
-    <sheet name="3-7" sheetId="22" r:id="rId24"/>
-    <sheet name="3-8" sheetId="23" r:id="rId25"/>
+    <sheet name="3-14" sheetId="26" r:id="rId3"/>
+    <sheet name="3-10" sheetId="25" r:id="rId4"/>
+    <sheet name="3-9" sheetId="24" r:id="rId5"/>
+    <sheet name="2-12" sheetId="2" r:id="rId6"/>
+    <sheet name="2-13" sheetId="3" r:id="rId7"/>
+    <sheet name="2-14" sheetId="4" r:id="rId8"/>
+    <sheet name="2-15" sheetId="5" r:id="rId9"/>
+    <sheet name="2-16" sheetId="6" r:id="rId10"/>
+    <sheet name="2-17" sheetId="7" r:id="rId11"/>
+    <sheet name="2-18" sheetId="8" r:id="rId12"/>
+    <sheet name="2-19" sheetId="9" r:id="rId13"/>
+    <sheet name="2-20" sheetId="11" r:id="rId14"/>
+    <sheet name="2-21" sheetId="12" r:id="rId15"/>
+    <sheet name="2-22" sheetId="13" r:id="rId16"/>
+    <sheet name="2-23" sheetId="14" r:id="rId17"/>
+    <sheet name="2-28" sheetId="15" r:id="rId18"/>
+    <sheet name="3-1" sheetId="16" r:id="rId19"/>
+    <sheet name="3-2" sheetId="17" r:id="rId20"/>
+    <sheet name="3-3" sheetId="18" r:id="rId21"/>
+    <sheet name="3-4" sheetId="19" r:id="rId22"/>
+    <sheet name="3-5" sheetId="20" r:id="rId23"/>
+    <sheet name="3-6" sheetId="21" r:id="rId24"/>
+    <sheet name="3-7" sheetId="22" r:id="rId25"/>
+    <sheet name="3-8" sheetId="23" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="104">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1627,6 +1628,148 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <f>4*7.049</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="E4">
+        <f>4*1.484</f>
+        <v>5.9359999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E5">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <f>4*1.246</f>
+        <v>4.984</v>
+      </c>
+      <c r="E6">
+        <f>4*18.512</f>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>2*4.8</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <f>1*4.98</f>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E8">
+        <f>1*34.86</f>
+        <v>34.86</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <f>5*2.72</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="E9">
+        <f>5*13.76</f>
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>12.48</v>
+      </c>
+      <c r="E10">
+        <v>62.070000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E11">
+        <f>2*26.2</f>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D4:D13)</f>
+        <v>131.26000000000002</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E4:E13)</f>
+        <v>404.31399999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E14"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
@@ -1780,7 +1923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E16"/>
   <sheetViews>
@@ -1946,7 +2089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E15"/>
   <sheetViews>
@@ -2106,758 +2249,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>431.92</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>23.88</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>64.400000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>151.34399999999999</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>26.216999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>331.08000000000004</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>4.9839999999999991</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>180.96</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>29.567999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>12.18</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>375.59999999999997</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>69.72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2498.7640000000001</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>131.483</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>404.68899999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3006,19 +2397,19 @@
         <v>32.200000000000003</v>
       </c>
       <c r="H5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="2"/>
-        <v>647.88</v>
+        <v>431.92</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>35.82</v>
+        <v>23.88</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -3041,19 +2432,19 @@
         <v>26.216999999999999</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>151.34399999999999</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.0830000000000002</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.216999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -3096,7 +2487,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -3286,19 +2677,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>180.96</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29.567999999999998</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -3353,22 +2744,22 @@
         <v>12.18</v>
       </c>
       <c r="G15" s="8">
-        <v>38.400000000000006</v>
+        <v>38.4</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -3391,19 +2782,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -3426,19 +2817,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>563.4</v>
+        <v>375.59999999999997</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>104.58</v>
+        <v>69.72</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -3461,19 +2852,19 @@
         <v>62.070000000000007</v>
       </c>
       <c r="H18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>327.78000000000003</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>12.48</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>62.070000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -3533,7 +2924,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -3541,11 +2932,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>0</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -3595,15 +2986,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>3150.42</v>
+        <v>2498.7640000000001</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>149.22</v>
+        <v>131.483</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>483.98399999999998</v>
+        <v>404.68899999999996</v>
       </c>
     </row>
   </sheetData>
@@ -3933,19 +3324,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -3968,19 +3359,19 @@
         <v>18.512</v>
       </c>
       <c r="H11" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="2"/>
-        <v>289.69500000000005</v>
+        <v>331.08000000000004</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>4.3609999999999989</v>
+        <v>4.9839999999999991</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>64.792000000000002</v>
+        <v>74.048000000000002</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -4038,19 +3429,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>226.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>36.959999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -4108,19 +3499,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>12.18</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -4213,19 +3604,19 @@
         <v>62.070000000000007</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>327.78000000000003</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62.070000000000007</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -4347,15 +3738,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>3058.0350000000003</v>
+        <v>3150.42</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>132.09700000000001</v>
+        <v>149.22</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>435.61799999999999</v>
+        <v>483.98399999999998</v>
       </c>
     </row>
   </sheetData>
@@ -4369,6 +3760,758 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>289.69500000000005</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3609999999999989</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>64.792000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>226.20000000000002</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>36.959999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>386.58000000000004</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>12.18</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>3058.0350000000003</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>132.09700000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>435.61799999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -5110,760 +5253,6 @@
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
         <v>391.26799999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>647.88</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>35.82</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>248.31000000000003</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7379999999999995</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>55.536000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>12.18</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>639</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>78.75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>563.4</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>104.58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2790.4500000000003</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>116.47399999999999</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>379.80199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -5904,7 +5293,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -6180,7 +5569,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -6195,19 +5584,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>52.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -6335,7 +5724,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -6343,11 +5732,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -6370,19 +5759,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -6510,19 +5899,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>3.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -6609,15 +5998,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2913.87</v>
+        <v>2790.4500000000003</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>136.39400000000001</v>
+        <v>116.47399999999999</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>437.00200000000007</v>
+        <v>379.80199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -6634,7 +6023,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6947,19 +6338,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -7052,19 +6443,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>226.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>36.959999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -7157,19 +6548,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -7192,19 +6583,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>563.4</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.940000000000001</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104.58</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -7299,7 +6690,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -7307,11 +6698,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>6.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -7361,15 +6752,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>1601.67</v>
+        <v>2913.87</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>90.454000000000008</v>
+        <v>136.39400000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>272.63200000000001</v>
+        <v>437.00200000000007</v>
       </c>
     </row>
   </sheetData>
@@ -8175,19 +7566,19 @@
         <v>55.05</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
-        <v>372.42500000000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>55.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -8350,19 +7741,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>226.20000000000002</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.959999999999994</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -8385,7 +7776,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -8393,11 +7784,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -8455,19 +7846,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -8490,19 +7881,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>563.4</v>
+        <v>0</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>104.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -8560,19 +7951,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -8597,7 +7988,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -8605,11 +7996,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>0</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -8659,15 +8050,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2776.2950000000001</v>
+        <v>1601.67</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>116.544</v>
+        <v>90.454000000000008</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>396.452</v>
+        <v>272.63200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8681,6 +8072,758 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>372.42500000000001</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2776.2950000000001</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>116.544</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>396.452</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -9434,7 +9577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -10188,7 +10331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -10940,7 +11083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -11694,7 +11837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -12453,7 +12596,7 @@
   <dimension ref="B2:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:K22"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12476,7 +12619,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -12697,19 +12840,19 @@
         <v>55.05</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
-        <v>372.42500000000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>55.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -12752,7 +12895,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -12872,19 +13015,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>90.48</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>14.783999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -12942,19 +13085,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -13012,19 +13155,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>563.4</v>
+        <v>0</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>104.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -13181,15 +13324,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2563.7750000000001</v>
+        <v>1924.0499999999997</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>130.54400000000001</v>
+        <v>111.93400000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>419.286</v>
+        <v>283.27199999999999</v>
       </c>
     </row>
   </sheetData>
@@ -13230,7 +13373,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -13451,19 +13594,19 @@
         <v>55.05</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>372.42500000000001</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>55.05</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -13506,7 +13649,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -13626,19 +13769,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90.48</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.783999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -13731,19 +13874,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -13935,15 +14078,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2739.87</v>
+        <v>2563.7750000000001</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>136.29400000000001</v>
+        <v>130.54400000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>428.20199999999994</v>
+        <v>419.286</v>
       </c>
     </row>
   </sheetData>
@@ -13957,6 +14100,760 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2739.87</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>136.29400000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>428.20199999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:E18"/>
   <sheetViews>
@@ -14130,7 +15027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:E20"/>
   <sheetViews>
@@ -14283,7 +15180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -14441,7 +15338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -14591,146 +15488,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4">
-        <f>4*7.049</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="E4">
-        <f>4*1.484</f>
-        <v>5.9359999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5">
-        <f>3*11.94</f>
-        <v>35.82</v>
-      </c>
-      <c r="E5">
-        <f>3*32.2</f>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6">
-        <f>4*1.246</f>
-        <v>4.984</v>
-      </c>
-      <c r="E6">
-        <f>4*18.512</f>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <f>2*3</f>
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <f>2*4.8</f>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8">
-        <f>1*4.98</f>
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="E8">
-        <f>1*34.86</f>
-        <v>34.86</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9">
-        <f>5*2.72</f>
-        <v>13.600000000000001</v>
-      </c>
-      <c r="E9">
-        <f>5*13.76</f>
-        <v>68.8</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10">
-        <v>12.48</v>
-      </c>
-      <c r="E10">
-        <v>62.070000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <f>2*12.6</f>
-        <v>25.2</v>
-      </c>
-      <c r="E11">
-        <f>2*26.2</f>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <f>SUM(D4:D13)</f>
-        <v>131.26000000000002</v>
-      </c>
-      <c r="E14">
-        <f>SUM(E4:E13)</f>
-        <v>404.31399999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -9,30 +9,31 @@
   <sheets>
     <sheet name="template" sheetId="10" r:id="rId1"/>
     <sheet name="参考" sheetId="1" r:id="rId2"/>
-    <sheet name="3-14" sheetId="26" r:id="rId3"/>
-    <sheet name="3-10" sheetId="25" r:id="rId4"/>
-    <sheet name="3-9" sheetId="24" r:id="rId5"/>
-    <sheet name="2-12" sheetId="2" r:id="rId6"/>
-    <sheet name="2-13" sheetId="3" r:id="rId7"/>
-    <sheet name="2-14" sheetId="4" r:id="rId8"/>
-    <sheet name="2-15" sheetId="5" r:id="rId9"/>
-    <sheet name="2-16" sheetId="6" r:id="rId10"/>
-    <sheet name="2-17" sheetId="7" r:id="rId11"/>
-    <sheet name="2-18" sheetId="8" r:id="rId12"/>
-    <sheet name="2-19" sheetId="9" r:id="rId13"/>
-    <sheet name="2-20" sheetId="11" r:id="rId14"/>
-    <sheet name="2-21" sheetId="12" r:id="rId15"/>
-    <sheet name="2-22" sheetId="13" r:id="rId16"/>
-    <sheet name="2-23" sheetId="14" r:id="rId17"/>
-    <sheet name="2-28" sheetId="15" r:id="rId18"/>
-    <sheet name="3-1" sheetId="16" r:id="rId19"/>
-    <sheet name="3-2" sheetId="17" r:id="rId20"/>
-    <sheet name="3-3" sheetId="18" r:id="rId21"/>
-    <sheet name="3-4" sheetId="19" r:id="rId22"/>
-    <sheet name="3-5" sheetId="20" r:id="rId23"/>
-    <sheet name="3-6" sheetId="21" r:id="rId24"/>
-    <sheet name="3-7" sheetId="22" r:id="rId25"/>
-    <sheet name="3-8" sheetId="23" r:id="rId26"/>
+    <sheet name="3-15" sheetId="27" r:id="rId3"/>
+    <sheet name="3-14" sheetId="26" r:id="rId4"/>
+    <sheet name="3-10" sheetId="25" r:id="rId5"/>
+    <sheet name="3-9" sheetId="24" r:id="rId6"/>
+    <sheet name="2-12" sheetId="2" r:id="rId7"/>
+    <sheet name="2-13" sheetId="3" r:id="rId8"/>
+    <sheet name="2-14" sheetId="4" r:id="rId9"/>
+    <sheet name="2-15" sheetId="5" r:id="rId10"/>
+    <sheet name="2-16" sheetId="6" r:id="rId11"/>
+    <sheet name="2-17" sheetId="7" r:id="rId12"/>
+    <sheet name="2-18" sheetId="8" r:id="rId13"/>
+    <sheet name="2-19" sheetId="9" r:id="rId14"/>
+    <sheet name="2-20" sheetId="11" r:id="rId15"/>
+    <sheet name="2-21" sheetId="12" r:id="rId16"/>
+    <sheet name="2-22" sheetId="13" r:id="rId17"/>
+    <sheet name="2-23" sheetId="14" r:id="rId18"/>
+    <sheet name="2-28" sheetId="15" r:id="rId19"/>
+    <sheet name="3-1" sheetId="16" r:id="rId20"/>
+    <sheet name="3-2" sheetId="17" r:id="rId21"/>
+    <sheet name="3-3" sheetId="18" r:id="rId22"/>
+    <sheet name="3-4" sheetId="19" r:id="rId23"/>
+    <sheet name="3-5" sheetId="20" r:id="rId24"/>
+    <sheet name="3-6" sheetId="21" r:id="rId25"/>
+    <sheet name="3-7" sheetId="22" r:id="rId26"/>
+    <sheet name="3-8" sheetId="23" r:id="rId27"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="104">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1628,6 +1629,158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <f>4*7.049</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="E4">
+        <f>4*1.484</f>
+        <v>5.9359999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E5">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <f>4*1.246</f>
+        <v>4.984</v>
+      </c>
+      <c r="E6">
+        <f>4*18.512</f>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>2*4.8</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <f>2*4.98</f>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E8">
+        <f>2*34.86</f>
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>12.18</v>
+      </c>
+      <c r="E9">
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="E10">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <f>3*1.8</f>
+        <v>5.4</v>
+      </c>
+      <c r="E11">
+        <f>3*7.392</f>
+        <v>22.176000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>12.6</v>
+      </c>
+      <c r="E12">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D4:D13)</f>
+        <v>136.74</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E4:E13)</f>
+        <v>421.42999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E14"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1766,7 +1919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -1923,7 +2076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E16"/>
   <sheetViews>
@@ -2089,7 +2242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E15"/>
   <sheetViews>
@@ -2249,758 +2402,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>431.92</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>23.88</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>64.400000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>151.34399999999999</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>26.216999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>331.08000000000004</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>4.9839999999999991</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>180.96</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>29.567999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>12.18</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>375.59999999999997</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>69.72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2498.7640000000001</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>131.483</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>404.68899999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3149,19 +2550,19 @@
         <v>32.200000000000003</v>
       </c>
       <c r="H5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="2"/>
-        <v>647.88</v>
+        <v>431.92</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>35.82</v>
+        <v>23.88</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -3184,19 +2585,19 @@
         <v>26.216999999999999</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>151.34399999999999</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.0830000000000002</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.216999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -3239,7 +2640,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -3429,19 +2830,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>180.96</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29.567999999999998</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -3496,22 +2897,22 @@
         <v>12.18</v>
       </c>
       <c r="G15" s="8">
-        <v>38.400000000000006</v>
+        <v>38.4</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -3534,19 +2935,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -3569,19 +2970,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>563.4</v>
+        <v>375.59999999999997</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>104.58</v>
+        <v>69.72</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -3604,19 +3005,19 @@
         <v>62.070000000000007</v>
       </c>
       <c r="H18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>327.78000000000003</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>12.48</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>62.070000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -3676,7 +3077,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -3684,11 +3085,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>0</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -3738,15 +3139,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>3150.42</v>
+        <v>2498.7640000000001</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>149.22</v>
+        <v>131.483</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>483.98399999999998</v>
+        <v>404.68899999999996</v>
       </c>
     </row>
   </sheetData>
@@ -4076,19 +3477,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -4111,19 +3512,19 @@
         <v>18.512</v>
       </c>
       <c r="H11" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="2"/>
-        <v>289.69500000000005</v>
+        <v>331.08000000000004</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>4.3609999999999989</v>
+        <v>4.9839999999999991</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>64.792000000000002</v>
+        <v>74.048000000000002</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -4181,19 +3582,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>226.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>36.959999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -4251,19 +3652,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>12.18</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -4356,19 +3757,19 @@
         <v>62.070000000000007</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>327.78000000000003</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62.070000000000007</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -4490,15 +3891,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>3058.0350000000003</v>
+        <v>3150.42</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>132.09700000000001</v>
+        <v>149.22</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>435.61799999999999</v>
+        <v>483.98399999999998</v>
       </c>
     </row>
   </sheetData>
@@ -4512,6 +3913,758 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>289.69500000000005</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3609999999999989</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>64.792000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>226.20000000000002</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>36.959999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>386.58000000000004</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>12.18</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>3058.0350000000003</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>132.09700000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>435.61799999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -5253,760 +5406,6 @@
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
         <v>391.26799999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>647.88</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>35.82</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>248.31000000000003</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7379999999999995</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>55.536000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>12.18</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>639</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>78.75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>563.4</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>104.58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2790.4500000000003</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>116.47399999999999</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>379.80199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -6047,7 +5446,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -6323,7 +5722,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -6338,19 +5737,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>52.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -6478,7 +5877,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -6486,11 +5885,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -6513,19 +5912,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -6653,19 +6052,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>3.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -6752,15 +6151,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2913.87</v>
+        <v>2790.4500000000003</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>136.39400000000001</v>
+        <v>116.47399999999999</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>437.00200000000007</v>
+        <v>379.80199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -7323,7 +6722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7636,19 +7037,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -7741,19 +7142,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>226.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>36.959999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -7846,19 +7247,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -7881,19 +7282,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>563.4</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.940000000000001</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104.58</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -7988,7 +7389,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -7996,11 +7397,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>6.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -8050,15 +7451,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>1601.67</v>
+        <v>2913.87</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>90.454000000000008</v>
+        <v>136.39400000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>272.63200000000001</v>
+        <v>437.00200000000007</v>
       </c>
     </row>
   </sheetData>
@@ -8318,19 +7719,19 @@
         <v>55.05</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
-        <v>372.42500000000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>55.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -8493,19 +7894,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>226.20000000000002</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.959999999999994</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -8528,7 +7929,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -8536,11 +7937,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -8598,19 +7999,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -8633,19 +8034,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>563.4</v>
+        <v>0</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>104.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -8703,19 +8104,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -8740,7 +8141,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -8748,11 +8149,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>0</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -8802,15 +8203,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2776.2950000000001</v>
+        <v>1601.67</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>116.544</v>
+        <v>90.454000000000008</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>396.452</v>
+        <v>272.63200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8824,6 +8225,758 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>372.42500000000001</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2776.2950000000001</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>116.544</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>396.452</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -9577,7 +9730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -10331,7 +10484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -11083,7 +11236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -11837,7 +11990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -12596,6 +12749,760 @@
   <dimension ref="B2:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>331.08000000000004</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9839999999999991</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2357.64</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>119.84</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>406.36400000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -13333,760 +14240,6 @@
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
         <v>283.27199999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:K22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>647.88</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>35.82</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>372.42500000000001</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>12.25</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>55.05</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>248.31000000000003</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7379999999999995</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>55.536000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>90.48</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>14.783999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>563.4</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>104.58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2563.7750000000001</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>130.54400000000001</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>419.286</v>
       </c>
     </row>
   </sheetData>
@@ -14127,7 +14280,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -14348,19 +14501,19 @@
         <v>55.05</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>372.42500000000001</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>55.05</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -14403,7 +14556,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -14523,19 +14676,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90.48</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.783999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -14628,19 +14781,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -14832,15 +14985,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2739.87</v>
+        <v>2563.7750000000001</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>136.29400000000001</v>
+        <v>130.54400000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>428.20199999999994</v>
+        <v>419.286</v>
       </c>
     </row>
   </sheetData>
@@ -14854,6 +15007,760 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2739.87</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>136.29400000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>428.20199999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:E18"/>
   <sheetViews>
@@ -15027,7 +15934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:E20"/>
   <sheetViews>
@@ -15180,7 +16087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -15336,156 +16243,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4">
-        <f>4*7.049</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="E4">
-        <f>4*1.484</f>
-        <v>5.9359999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5">
-        <f>3*11.94</f>
-        <v>35.82</v>
-      </c>
-      <c r="E5">
-        <f>3*32.2</f>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6">
-        <f>4*1.246</f>
-        <v>4.984</v>
-      </c>
-      <c r="E6">
-        <f>4*18.512</f>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <f>2*3</f>
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <f>2*4.8</f>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8">
-        <f>2*4.98</f>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="E8">
-        <f>2*34.86</f>
-        <v>69.72</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9">
-        <v>12.18</v>
-      </c>
-      <c r="E9">
-        <v>38.400000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="E10">
-        <v>78.75</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11">
-        <f>3*1.8</f>
-        <v>5.4</v>
-      </c>
-      <c r="E11">
-        <f>3*7.392</f>
-        <v>22.176000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12">
-        <v>12.6</v>
-      </c>
-      <c r="E12">
-        <v>26.2</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <f>SUM(D4:D13)</f>
-        <v>136.74</v>
-      </c>
-      <c r="E14">
-        <f>SUM(E4:E13)</f>
-        <v>421.42999999999995</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -9,31 +9,32 @@
   <sheets>
     <sheet name="template" sheetId="10" r:id="rId1"/>
     <sheet name="参考" sheetId="1" r:id="rId2"/>
-    <sheet name="3-15" sheetId="27" r:id="rId3"/>
-    <sheet name="3-14" sheetId="26" r:id="rId4"/>
-    <sheet name="3-10" sheetId="25" r:id="rId5"/>
-    <sheet name="3-9" sheetId="24" r:id="rId6"/>
-    <sheet name="2-12" sheetId="2" r:id="rId7"/>
-    <sheet name="2-13" sheetId="3" r:id="rId8"/>
-    <sheet name="2-14" sheetId="4" r:id="rId9"/>
-    <sheet name="2-15" sheetId="5" r:id="rId10"/>
-    <sheet name="2-16" sheetId="6" r:id="rId11"/>
-    <sheet name="2-17" sheetId="7" r:id="rId12"/>
-    <sheet name="2-18" sheetId="8" r:id="rId13"/>
-    <sheet name="2-19" sheetId="9" r:id="rId14"/>
-    <sheet name="2-20" sheetId="11" r:id="rId15"/>
-    <sheet name="2-21" sheetId="12" r:id="rId16"/>
-    <sheet name="2-22" sheetId="13" r:id="rId17"/>
-    <sheet name="2-23" sheetId="14" r:id="rId18"/>
-    <sheet name="2-28" sheetId="15" r:id="rId19"/>
-    <sheet name="3-1" sheetId="16" r:id="rId20"/>
-    <sheet name="3-2" sheetId="17" r:id="rId21"/>
-    <sheet name="3-3" sheetId="18" r:id="rId22"/>
-    <sheet name="3-4" sheetId="19" r:id="rId23"/>
-    <sheet name="3-5" sheetId="20" r:id="rId24"/>
-    <sheet name="3-6" sheetId="21" r:id="rId25"/>
-    <sheet name="3-7" sheetId="22" r:id="rId26"/>
-    <sheet name="3-8" sheetId="23" r:id="rId27"/>
+    <sheet name="3-16" sheetId="28" r:id="rId3"/>
+    <sheet name="3-15" sheetId="27" r:id="rId4"/>
+    <sheet name="3-14" sheetId="26" r:id="rId5"/>
+    <sheet name="3-10" sheetId="25" r:id="rId6"/>
+    <sheet name="3-9" sheetId="24" r:id="rId7"/>
+    <sheet name="2-12" sheetId="2" r:id="rId8"/>
+    <sheet name="2-13" sheetId="3" r:id="rId9"/>
+    <sheet name="2-14" sheetId="4" r:id="rId10"/>
+    <sheet name="2-15" sheetId="5" r:id="rId11"/>
+    <sheet name="2-16" sheetId="6" r:id="rId12"/>
+    <sheet name="2-17" sheetId="7" r:id="rId13"/>
+    <sheet name="2-18" sheetId="8" r:id="rId14"/>
+    <sheet name="2-19" sheetId="9" r:id="rId15"/>
+    <sheet name="2-20" sheetId="11" r:id="rId16"/>
+    <sheet name="2-21" sheetId="12" r:id="rId17"/>
+    <sheet name="2-22" sheetId="13" r:id="rId18"/>
+    <sheet name="2-23" sheetId="14" r:id="rId19"/>
+    <sheet name="2-28" sheetId="15" r:id="rId20"/>
+    <sheet name="3-1" sheetId="16" r:id="rId21"/>
+    <sheet name="3-2" sheetId="17" r:id="rId22"/>
+    <sheet name="3-3" sheetId="18" r:id="rId23"/>
+    <sheet name="3-4" sheetId="19" r:id="rId24"/>
+    <sheet name="3-5" sheetId="20" r:id="rId25"/>
+    <sheet name="3-6" sheetId="21" r:id="rId26"/>
+    <sheet name="3-7" sheetId="22" r:id="rId27"/>
+    <sheet name="3-8" sheetId="23" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="104">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1630,6 +1631,164 @@
   <dimension ref="C3:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <f>4*7.049</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="E4">
+        <f>4*1.484</f>
+        <v>5.9359999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E5">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <f>2*1.246</f>
+        <v>2.492</v>
+      </c>
+      <c r="E6">
+        <f>2*18.512</f>
+        <v>37.024000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>2*4.8</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <f>2*4.98</f>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E8">
+        <f>2*34.86</f>
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <f>2*1.246</f>
+        <v>2.492</v>
+      </c>
+      <c r="E9">
+        <f>2*18.512</f>
+        <v>37.024000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <f>5*2.72</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="E10">
+        <f>5*13.76</f>
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <f>3.5*2.7</f>
+        <v>9.4500000000000011</v>
+      </c>
+      <c r="E11">
+        <f>2.5*24.2</f>
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E12">
+        <f>2*26.2</f>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D4:D13)</f>
+        <v>133.21000000000004</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E4:E13)</f>
+        <v>437.60399999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:E14"/>
     </sheetView>
   </sheetViews>
@@ -1777,7 +1936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -1919,7 +2078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -2076,7 +2235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E16"/>
   <sheetViews>
@@ -2242,7 +2401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E15"/>
   <sheetViews>
@@ -2402,758 +2561,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>431.92</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>23.88</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>64.400000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>151.34399999999999</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>26.216999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>331.08000000000004</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>4.9839999999999991</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>180.96</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>29.567999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>12.18</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>375.59999999999997</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>69.72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2498.7640000000001</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>131.483</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>404.68899999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3302,19 +2709,19 @@
         <v>32.200000000000003</v>
       </c>
       <c r="H5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="2"/>
-        <v>647.88</v>
+        <v>431.92</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>35.82</v>
+        <v>23.88</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -3337,19 +2744,19 @@
         <v>26.216999999999999</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>151.34399999999999</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.0830000000000002</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.216999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -3392,7 +2799,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -3582,19 +2989,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>180.96</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29.567999999999998</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -3649,22 +3056,22 @@
         <v>12.18</v>
       </c>
       <c r="G15" s="8">
-        <v>38.400000000000006</v>
+        <v>38.4</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -3687,19 +3094,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -3722,19 +3129,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>563.4</v>
+        <v>375.59999999999997</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>104.58</v>
+        <v>69.72</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -3757,19 +3164,19 @@
         <v>62.070000000000007</v>
       </c>
       <c r="H18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>327.78000000000003</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>12.48</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>62.070000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -3829,7 +3236,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -3837,11 +3244,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>0</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -3891,15 +3298,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>3150.42</v>
+        <v>2498.7640000000001</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>149.22</v>
+        <v>131.483</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>483.98399999999998</v>
+        <v>404.68899999999996</v>
       </c>
     </row>
   </sheetData>
@@ -4229,19 +3636,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -4264,19 +3671,19 @@
         <v>18.512</v>
       </c>
       <c r="H11" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="2"/>
-        <v>289.69500000000005</v>
+        <v>331.08000000000004</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>4.3609999999999989</v>
+        <v>4.9839999999999991</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>64.792000000000002</v>
+        <v>74.048000000000002</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -4334,19 +3741,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>226.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>36.959999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -4404,19 +3811,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>12.18</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -4509,19 +3916,19 @@
         <v>62.070000000000007</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>327.78000000000003</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62.070000000000007</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -4643,15 +4050,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>3058.0350000000003</v>
+        <v>3150.42</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>132.09700000000001</v>
+        <v>149.22</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>435.61799999999999</v>
+        <v>483.98399999999998</v>
       </c>
     </row>
   </sheetData>
@@ -4665,6 +4072,758 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>289.69500000000005</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3609999999999989</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>64.792000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>226.20000000000002</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>36.959999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>386.58000000000004</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>12.18</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>3058.0350000000003</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>132.09700000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>435.61799999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -5406,760 +5565,6 @@
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
         <v>391.26799999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>647.88</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>35.82</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>248.31000000000003</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7379999999999995</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>55.536000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>12.18</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>639</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>78.75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>563.4</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>104.58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2790.4500000000003</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>116.47399999999999</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>379.80199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -6746,7 +6151,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -7022,7 +6427,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -7037,19 +6442,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>52.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -7177,7 +6582,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -7185,11 +6590,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -7212,19 +6617,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -7352,19 +6757,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>3.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -7451,15 +6856,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2913.87</v>
+        <v>2790.4500000000003</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>136.39400000000001</v>
+        <v>116.47399999999999</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>437.00200000000007</v>
+        <v>379.80199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -7476,7 +6881,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7789,19 +7196,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -7894,19 +7301,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>226.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>36.959999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -7999,19 +7406,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -8034,19 +7441,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>563.4</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.940000000000001</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104.58</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -8141,7 +7548,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -8149,11 +7556,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>6.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -8203,15 +7610,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>1601.67</v>
+        <v>2913.87</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>90.454000000000008</v>
+        <v>136.39400000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>272.63200000000001</v>
+        <v>437.00200000000007</v>
       </c>
     </row>
   </sheetData>
@@ -8471,19 +7878,19 @@
         <v>55.05</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
-        <v>372.42500000000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>55.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -8646,19 +8053,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>226.20000000000002</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.959999999999994</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -8681,7 +8088,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -8689,11 +8096,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -8751,19 +8158,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -8786,19 +8193,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>563.4</v>
+        <v>0</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>104.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -8856,19 +8263,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -8893,7 +8300,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -8901,11 +8308,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>0</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -8955,15 +8362,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2776.2950000000001</v>
+        <v>1601.67</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>116.544</v>
+        <v>90.454000000000008</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>396.452</v>
+        <v>272.63200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8977,6 +8384,758 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>372.42500000000001</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2776.2950000000001</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>116.544</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>396.452</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -9730,7 +9889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -10484,7 +10643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -11236,7 +11395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -11990,7 +12149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -12749,6 +12908,760 @@
   <dimension ref="B2:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>863.84</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>47.76</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>128.80000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>331.08000000000004</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9839999999999991</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>386.58000000000004</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>12.18</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2786.18</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>140.06</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>438.56400000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -13498,7 +14411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -14240,760 +15153,6 @@
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
         <v>283.27199999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:K22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>647.88</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>35.82</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>372.42500000000001</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>12.25</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>55.05</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>248.31000000000003</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7379999999999995</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>55.536000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>90.48</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>14.783999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>563.4</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>104.58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2563.7750000000001</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>130.54400000000001</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>419.286</v>
       </c>
     </row>
   </sheetData>
@@ -15034,7 +15193,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -15255,19 +15414,19 @@
         <v>55.05</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>372.42500000000001</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>55.05</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -15310,7 +15469,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -15430,19 +15589,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90.48</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.783999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -15535,19 +15694,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -15739,15 +15898,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2739.87</v>
+        <v>2563.7750000000001</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>136.29400000000001</v>
+        <v>130.54400000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>428.20199999999994</v>
+        <v>419.286</v>
       </c>
     </row>
   </sheetData>
@@ -15761,6 +15920,760 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2739.87</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>136.29400000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>428.20199999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:E18"/>
   <sheetViews>
@@ -15934,7 +16847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:E20"/>
   <sheetViews>
@@ -16085,162 +16998,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4">
-        <f>4*7.049</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="E4">
-        <f>4*1.484</f>
-        <v>5.9359999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5">
-        <f>3*11.94</f>
-        <v>35.82</v>
-      </c>
-      <c r="E5">
-        <f>3*32.2</f>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6">
-        <f>2*1.246</f>
-        <v>2.492</v>
-      </c>
-      <c r="E6">
-        <f>2*18.512</f>
-        <v>37.024000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <f>2*3</f>
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <f>2*4.8</f>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8">
-        <f>2*4.98</f>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="E8">
-        <f>2*34.86</f>
-        <v>69.72</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9">
-        <f>2*1.246</f>
-        <v>2.492</v>
-      </c>
-      <c r="E9">
-        <f>2*18.512</f>
-        <v>37.024000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10">
-        <f>5*2.72</f>
-        <v>13.600000000000001</v>
-      </c>
-      <c r="E10">
-        <f>5*13.76</f>
-        <v>68.8</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11">
-        <f>3.5*2.7</f>
-        <v>9.4500000000000011</v>
-      </c>
-      <c r="E11">
-        <f>2.5*24.2</f>
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12">
-        <f>2*12.6</f>
-        <v>25.2</v>
-      </c>
-      <c r="E12">
-        <f>2*26.2</f>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <f>SUM(D4:D13)</f>
-        <v>133.21000000000004</v>
-      </c>
-      <c r="E14">
-        <f>SUM(E4:E13)</f>
-        <v>437.60399999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -9,32 +9,33 @@
   <sheets>
     <sheet name="template" sheetId="10" r:id="rId1"/>
     <sheet name="参考" sheetId="1" r:id="rId2"/>
-    <sheet name="3-16" sheetId="28" r:id="rId3"/>
-    <sheet name="3-15" sheetId="27" r:id="rId4"/>
-    <sheet name="3-14" sheetId="26" r:id="rId5"/>
-    <sheet name="3-10" sheetId="25" r:id="rId6"/>
-    <sheet name="3-9" sheetId="24" r:id="rId7"/>
-    <sheet name="2-12" sheetId="2" r:id="rId8"/>
-    <sheet name="2-13" sheetId="3" r:id="rId9"/>
-    <sheet name="2-14" sheetId="4" r:id="rId10"/>
-    <sheet name="2-15" sheetId="5" r:id="rId11"/>
-    <sheet name="2-16" sheetId="6" r:id="rId12"/>
-    <sheet name="2-17" sheetId="7" r:id="rId13"/>
-    <sheet name="2-18" sheetId="8" r:id="rId14"/>
-    <sheet name="2-19" sheetId="9" r:id="rId15"/>
-    <sheet name="2-20" sheetId="11" r:id="rId16"/>
-    <sheet name="2-21" sheetId="12" r:id="rId17"/>
-    <sheet name="2-22" sheetId="13" r:id="rId18"/>
-    <sheet name="2-23" sheetId="14" r:id="rId19"/>
-    <sheet name="2-28" sheetId="15" r:id="rId20"/>
-    <sheet name="3-1" sheetId="16" r:id="rId21"/>
-    <sheet name="3-2" sheetId="17" r:id="rId22"/>
-    <sheet name="3-3" sheetId="18" r:id="rId23"/>
-    <sheet name="3-4" sheetId="19" r:id="rId24"/>
-    <sheet name="3-5" sheetId="20" r:id="rId25"/>
-    <sheet name="3-6" sheetId="21" r:id="rId26"/>
-    <sheet name="3-7" sheetId="22" r:id="rId27"/>
-    <sheet name="3-8" sheetId="23" r:id="rId28"/>
+    <sheet name="3-17" sheetId="29" r:id="rId3"/>
+    <sheet name="3-16" sheetId="28" r:id="rId4"/>
+    <sheet name="3-15" sheetId="27" r:id="rId5"/>
+    <sheet name="3-14" sheetId="26" r:id="rId6"/>
+    <sheet name="3-10" sheetId="25" r:id="rId7"/>
+    <sheet name="3-9" sheetId="24" r:id="rId8"/>
+    <sheet name="2-12" sheetId="2" r:id="rId9"/>
+    <sheet name="2-13" sheetId="3" r:id="rId10"/>
+    <sheet name="2-14" sheetId="4" r:id="rId11"/>
+    <sheet name="2-15" sheetId="5" r:id="rId12"/>
+    <sheet name="2-16" sheetId="6" r:id="rId13"/>
+    <sheet name="2-17" sheetId="7" r:id="rId14"/>
+    <sheet name="2-18" sheetId="8" r:id="rId15"/>
+    <sheet name="2-19" sheetId="9" r:id="rId16"/>
+    <sheet name="2-20" sheetId="11" r:id="rId17"/>
+    <sheet name="2-21" sheetId="12" r:id="rId18"/>
+    <sheet name="2-22" sheetId="13" r:id="rId19"/>
+    <sheet name="2-23" sheetId="14" r:id="rId20"/>
+    <sheet name="2-28" sheetId="15" r:id="rId21"/>
+    <sheet name="3-1" sheetId="16" r:id="rId22"/>
+    <sheet name="3-2" sheetId="17" r:id="rId23"/>
+    <sheet name="3-3" sheetId="18" r:id="rId24"/>
+    <sheet name="3-4" sheetId="19" r:id="rId25"/>
+    <sheet name="3-5" sheetId="20" r:id="rId26"/>
+    <sheet name="3-6" sheetId="21" r:id="rId27"/>
+    <sheet name="3-7" sheetId="22" r:id="rId28"/>
+    <sheet name="3-8" sheetId="23" r:id="rId29"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="104">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1628,6 +1629,159 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <f>4*7.049</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="E6">
+        <f>4*1.484</f>
+        <v>5.9359999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E7">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <f>2*1.246</f>
+        <v>2.492</v>
+      </c>
+      <c r="E8">
+        <f>2*18.512</f>
+        <v>37.024000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <f>2*4.8</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <f>3*12.6</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="E10">
+        <f>3*26.2</f>
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>12.18</v>
+      </c>
+      <c r="E11">
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="E12">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E13">
+        <v>34.86</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <f>1.8/12*50</f>
+        <v>7.5</v>
+      </c>
+      <c r="E14">
+        <f>7.392/12*50</f>
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D6:D14)</f>
+        <v>156.56799999999998</v>
+      </c>
+      <c r="E20">
+        <f>SUM(E6:E14)</f>
+        <v>410.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1784,7 +1938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -1936,7 +2090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -2078,7 +2232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -2235,7 +2389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E16"/>
   <sheetViews>
@@ -2401,7 +2555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E15"/>
   <sheetViews>
@@ -2561,758 +2715,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>431.92</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>23.88</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>64.400000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>151.34399999999999</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>26.216999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>331.08000000000004</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>4.9839999999999991</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>180.96</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>29.567999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>12.18</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>375.59999999999997</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>69.72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2498.7640000000001</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>131.483</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>404.68899999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3461,19 +2863,19 @@
         <v>32.200000000000003</v>
       </c>
       <c r="H5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="2"/>
-        <v>647.88</v>
+        <v>431.92</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>35.82</v>
+        <v>23.88</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -3496,19 +2898,19 @@
         <v>26.216999999999999</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>151.34399999999999</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.0830000000000002</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.216999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -3551,7 +2953,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -3741,19 +3143,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>180.96</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29.567999999999998</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -3808,22 +3210,22 @@
         <v>12.18</v>
       </c>
       <c r="G15" s="8">
-        <v>38.400000000000006</v>
+        <v>38.4</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -3846,19 +3248,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -3881,19 +3283,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>563.4</v>
+        <v>375.59999999999997</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>104.58</v>
+        <v>69.72</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -3916,19 +3318,19 @@
         <v>62.070000000000007</v>
       </c>
       <c r="H18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>327.78000000000003</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>12.48</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>62.070000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -3988,7 +3390,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -3996,11 +3398,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>0</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -4050,15 +3452,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>3150.42</v>
+        <v>2498.7640000000001</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>149.22</v>
+        <v>131.483</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>483.98399999999998</v>
+        <v>404.68899999999996</v>
       </c>
     </row>
   </sheetData>
@@ -4388,19 +3790,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -4423,19 +3825,19 @@
         <v>18.512</v>
       </c>
       <c r="H11" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="2"/>
-        <v>289.69500000000005</v>
+        <v>331.08000000000004</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>4.3609999999999989</v>
+        <v>4.9839999999999991</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>64.792000000000002</v>
+        <v>74.048000000000002</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -4493,19 +3895,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>226.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>36.959999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -4563,19 +3965,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>12.18</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -4668,19 +4070,19 @@
         <v>62.070000000000007</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>327.78000000000003</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62.070000000000007</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -4802,15 +4204,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>3058.0350000000003</v>
+        <v>3150.42</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>132.09700000000001</v>
+        <v>149.22</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>435.61799999999999</v>
+        <v>483.98399999999998</v>
       </c>
     </row>
   </sheetData>
@@ -4827,9 +4229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4851,7 +4251,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -5127,7 +4527,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -5352,19 +4752,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -5494,7 +4894,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -5502,11 +4902,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>6.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -5556,15 +4956,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2419.0350000000003</v>
+        <v>3058.0350000000003</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>117.29700000000001</v>
+        <v>132.09700000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>391.26799999999997</v>
+        <v>435.61799999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6128,7 +5528,7 @@
   <dimension ref="B2:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6477,19 +5877,19 @@
         <v>18.512</v>
       </c>
       <c r="H11" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="2"/>
-        <v>248.31000000000003</v>
+        <v>289.69500000000005</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>3.7379999999999995</v>
+        <v>4.3609999999999989</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>55.536000000000001</v>
+        <v>64.792000000000002</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -6547,19 +5947,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>226.20000000000002</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.959999999999994</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -6582,7 +5982,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -6590,11 +5990,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -6652,19 +6052,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -6794,7 +6194,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -6802,11 +6202,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>0</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -6856,15 +6256,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2790.4500000000003</v>
+        <v>2419.0350000000003</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>116.47399999999999</v>
+        <v>117.29700000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>379.80199999999996</v>
+        <v>391.26799999999997</v>
       </c>
     </row>
   </sheetData>
@@ -6905,7 +6305,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -7181,7 +6581,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -7196,19 +6596,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>52.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -7336,7 +6736,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -7344,11 +6744,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -7371,19 +6771,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -7511,19 +6911,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>3.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -7610,15 +7010,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2913.87</v>
+        <v>2790.4500000000003</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>136.39400000000001</v>
+        <v>116.47399999999999</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>437.00200000000007</v>
+        <v>379.80199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -7635,7 +7035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7948,19 +7350,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -8053,19 +7455,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>226.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>36.959999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -8158,19 +7560,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -8193,19 +7595,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>563.4</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.940000000000001</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104.58</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -8300,7 +7702,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -8308,11 +7710,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>6.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -8362,15 +7764,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>1601.67</v>
+        <v>2913.87</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>90.454000000000008</v>
+        <v>136.39400000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>272.63200000000001</v>
+        <v>437.00200000000007</v>
       </c>
     </row>
   </sheetData>
@@ -8630,19 +8032,19 @@
         <v>55.05</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
-        <v>372.42500000000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>55.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -8805,19 +8207,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>226.20000000000002</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.959999999999994</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -8840,7 +8242,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -8848,11 +8250,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -8910,19 +8312,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -8945,19 +8347,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>563.4</v>
+        <v>0</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>104.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -9015,19 +8417,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -9052,7 +8454,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -9060,11 +8462,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>0</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -9114,15 +8516,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2776.2950000000001</v>
+        <v>1601.67</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>116.544</v>
+        <v>90.454000000000008</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>396.452</v>
+        <v>272.63200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9136,6 +8538,758 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>372.42500000000001</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2776.2950000000001</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>116.544</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>396.452</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -9889,7 +10043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -10643,7 +10797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -11395,7 +11549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -12149,7 +12303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -12907,7 +13061,759 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>372.42500000000001</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>331.08000000000004</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9839999999999991</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2556.0650000000001</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>128.19</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>423.01399999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22:K22"/>
     </sheetView>
   </sheetViews>
@@ -13657,7 +14563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -14411,7 +15317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -15153,760 +16059,6 @@
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
         <v>283.27199999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:K22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>647.88</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>35.82</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>372.42500000000001</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>12.25</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>55.05</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>248.31000000000003</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7379999999999995</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>55.536000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>90.48</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>14.783999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>563.4</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>104.58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2563.7750000000001</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>130.54400000000001</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>419.286</v>
       </c>
     </row>
   </sheetData>
@@ -15947,7 +16099,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -16168,19 +16320,19 @@
         <v>55.05</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>372.42500000000001</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>55.05</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -16223,7 +16375,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -16343,19 +16495,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90.48</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.783999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -16448,19 +16600,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -16652,15 +16804,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2739.87</v>
+        <v>2563.7750000000001</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>136.29400000000001</v>
+        <v>130.54400000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>428.20199999999994</v>
+        <v>419.286</v>
       </c>
     </row>
   </sheetData>
@@ -16674,6 +16826,760 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2739.87</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>136.29400000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>428.20199999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:E18"/>
   <sheetViews>
@@ -16845,157 +17751,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6">
-        <f>4*7.049</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="E6">
-        <f>4*1.484</f>
-        <v>5.9359999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7">
-        <f>3*11.94</f>
-        <v>35.82</v>
-      </c>
-      <c r="E7">
-        <f>3*32.2</f>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8">
-        <f>2*1.246</f>
-        <v>2.492</v>
-      </c>
-      <c r="E8">
-        <f>2*18.512</f>
-        <v>37.024000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9">
-        <f>2*3</f>
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <f>2*4.8</f>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10">
-        <f>3*12.6</f>
-        <v>37.799999999999997</v>
-      </c>
-      <c r="E10">
-        <f>3*26.2</f>
-        <v>78.599999999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11">
-        <v>12.18</v>
-      </c>
-      <c r="E11">
-        <v>38.400000000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="E12">
-        <v>78.75</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="E13">
-        <v>34.86</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14">
-        <f>1.8/12*50</f>
-        <v>7.5</v>
-      </c>
-      <c r="E14">
-        <f>7.392/12*50</f>
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20">
-        <f>SUM(D6:D14)</f>
-        <v>156.56799999999998</v>
-      </c>
-      <c r="E20">
-        <f>SUM(E6:E14)</f>
-        <v>410.57</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -9,33 +9,34 @@
   <sheets>
     <sheet name="template" sheetId="10" r:id="rId1"/>
     <sheet name="参考" sheetId="1" r:id="rId2"/>
-    <sheet name="3-17" sheetId="29" r:id="rId3"/>
-    <sheet name="3-16" sheetId="28" r:id="rId4"/>
-    <sheet name="3-15" sheetId="27" r:id="rId5"/>
-    <sheet name="3-14" sheetId="26" r:id="rId6"/>
-    <sheet name="3-10" sheetId="25" r:id="rId7"/>
-    <sheet name="3-9" sheetId="24" r:id="rId8"/>
-    <sheet name="2-12" sheetId="2" r:id="rId9"/>
-    <sheet name="2-13" sheetId="3" r:id="rId10"/>
-    <sheet name="2-14" sheetId="4" r:id="rId11"/>
-    <sheet name="2-15" sheetId="5" r:id="rId12"/>
-    <sheet name="2-16" sheetId="6" r:id="rId13"/>
-    <sheet name="2-17" sheetId="7" r:id="rId14"/>
-    <sheet name="2-18" sheetId="8" r:id="rId15"/>
-    <sheet name="2-19" sheetId="9" r:id="rId16"/>
-    <sheet name="2-20" sheetId="11" r:id="rId17"/>
-    <sheet name="2-21" sheetId="12" r:id="rId18"/>
-    <sheet name="2-22" sheetId="13" r:id="rId19"/>
-    <sheet name="2-23" sheetId="14" r:id="rId20"/>
-    <sheet name="2-28" sheetId="15" r:id="rId21"/>
-    <sheet name="3-1" sheetId="16" r:id="rId22"/>
-    <sheet name="3-2" sheetId="17" r:id="rId23"/>
-    <sheet name="3-3" sheetId="18" r:id="rId24"/>
-    <sheet name="3-4" sheetId="19" r:id="rId25"/>
-    <sheet name="3-5" sheetId="20" r:id="rId26"/>
-    <sheet name="3-6" sheetId="21" r:id="rId27"/>
-    <sheet name="3-7" sheetId="22" r:id="rId28"/>
-    <sheet name="3-8" sheetId="23" r:id="rId29"/>
+    <sheet name="3-18" sheetId="30" r:id="rId3"/>
+    <sheet name="3-17" sheetId="29" r:id="rId4"/>
+    <sheet name="3-16" sheetId="28" r:id="rId5"/>
+    <sheet name="3-15" sheetId="27" r:id="rId6"/>
+    <sheet name="3-14" sheetId="26" r:id="rId7"/>
+    <sheet name="3-10" sheetId="25" r:id="rId8"/>
+    <sheet name="3-9" sheetId="24" r:id="rId9"/>
+    <sheet name="2-12" sheetId="2" r:id="rId10"/>
+    <sheet name="2-13" sheetId="3" r:id="rId11"/>
+    <sheet name="2-14" sheetId="4" r:id="rId12"/>
+    <sheet name="2-15" sheetId="5" r:id="rId13"/>
+    <sheet name="2-16" sheetId="6" r:id="rId14"/>
+    <sheet name="2-17" sheetId="7" r:id="rId15"/>
+    <sheet name="2-18" sheetId="8" r:id="rId16"/>
+    <sheet name="2-19" sheetId="9" r:id="rId17"/>
+    <sheet name="2-20" sheetId="11" r:id="rId18"/>
+    <sheet name="2-21" sheetId="12" r:id="rId19"/>
+    <sheet name="2-22" sheetId="13" r:id="rId20"/>
+    <sheet name="2-23" sheetId="14" r:id="rId21"/>
+    <sheet name="2-28" sheetId="15" r:id="rId22"/>
+    <sheet name="3-1" sheetId="16" r:id="rId23"/>
+    <sheet name="3-2" sheetId="17" r:id="rId24"/>
+    <sheet name="3-3" sheetId="18" r:id="rId25"/>
+    <sheet name="3-4" sheetId="19" r:id="rId26"/>
+    <sheet name="3-5" sheetId="20" r:id="rId27"/>
+    <sheet name="3-6" sheetId="21" r:id="rId28"/>
+    <sheet name="3-7" sheetId="22" r:id="rId29"/>
+    <sheet name="3-8" sheetId="23" r:id="rId30"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="104">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1629,6 +1630,180 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f>2*7.049</f>
+        <v>14.098000000000001</v>
+      </c>
+      <c r="E7">
+        <f>2*1.484</f>
+        <v>2.968</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>5.7</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <f>2*11.94</f>
+        <v>23.88</v>
+      </c>
+      <c r="E9">
+        <f>2*32.2</f>
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="E10">
+        <v>26.216999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="E11">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>24.5</v>
+      </c>
+      <c r="E12">
+        <v>110.1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E13">
+        <f>2*26.2</f>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E14">
+        <f>2*26.2</f>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="E15">
+        <v>18.512</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <f>10*0.02</f>
+        <v>0.2</v>
+      </c>
+      <c r="E16">
+        <f>10*3.78</f>
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <f>1.8/12*50</f>
+        <v>7.5</v>
+      </c>
+      <c r="E17">
+        <f>7.392/12*50</f>
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D7:D17)</f>
+        <v>179.10699999999997</v>
+      </c>
+      <c r="E18">
+        <f>SUM(E7:E17)</f>
+        <v>401.64699999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1780,7 +1955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -1938,7 +2113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -2090,7 +2265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -2232,7 +2407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -2389,7 +2564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E16"/>
   <sheetViews>
@@ -2555,7 +2730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E15"/>
   <sheetViews>
@@ -2715,758 +2890,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>431.92</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>23.88</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>64.400000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>151.34399999999999</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>26.216999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>331.08000000000004</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>4.9839999999999991</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>180.96</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>29.567999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>12.18</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>375.59999999999997</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>69.72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2498.7640000000001</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>131.483</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>404.68899999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3615,19 +3038,19 @@
         <v>32.200000000000003</v>
       </c>
       <c r="H5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="2"/>
-        <v>647.88</v>
+        <v>431.92</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>35.82</v>
+        <v>23.88</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -3650,19 +3073,19 @@
         <v>26.216999999999999</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>151.34399999999999</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.0830000000000002</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.216999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -3705,7 +3128,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -3895,19 +3318,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>180.96</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29.567999999999998</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -3962,22 +3385,22 @@
         <v>12.18</v>
       </c>
       <c r="G15" s="8">
-        <v>38.400000000000006</v>
+        <v>38.4</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -4000,19 +3423,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -4035,19 +3458,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>563.4</v>
+        <v>375.59999999999997</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>104.58</v>
+        <v>69.72</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -4070,19 +3493,19 @@
         <v>62.070000000000007</v>
       </c>
       <c r="H18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>327.78000000000003</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>12.48</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>62.070000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -4142,7 +3565,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -4150,11 +3573,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>0</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -4204,15 +3627,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>3150.42</v>
+        <v>2498.7640000000001</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>149.22</v>
+        <v>131.483</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>483.98399999999998</v>
+        <v>404.68899999999996</v>
       </c>
     </row>
   </sheetData>
@@ -4542,19 +3965,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -4577,19 +4000,19 @@
         <v>18.512</v>
       </c>
       <c r="H11" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="2"/>
-        <v>289.69500000000005</v>
+        <v>331.08000000000004</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>4.3609999999999989</v>
+        <v>4.9839999999999991</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>64.792000000000002</v>
+        <v>74.048000000000002</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -4647,19 +4070,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>226.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>36.959999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -4717,19 +4140,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>12.18</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -4822,19 +4245,19 @@
         <v>62.070000000000007</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>327.78000000000003</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62.070000000000007</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -4956,15 +4379,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>3058.0350000000003</v>
+        <v>3150.42</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>132.09700000000001</v>
+        <v>149.22</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>435.61799999999999</v>
+        <v>483.98399999999998</v>
       </c>
     </row>
   </sheetData>
@@ -5527,6 +4950,758 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>289.69500000000005</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3609999999999989</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>64.792000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>226.20000000000002</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>36.959999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>386.58000000000004</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>12.18</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>3058.0350000000003</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>132.09700000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>435.61799999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -6265,760 +6440,6 @@
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
         <v>391.26799999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>647.88</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>35.82</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>248.31000000000003</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7379999999999995</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>55.536000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>12.18</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>639</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>78.75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>563.4</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>104.58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2790.4500000000003</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>116.47399999999999</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>379.80199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -7059,7 +6480,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -7335,7 +6756,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -7350,19 +6771,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>52.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -7490,7 +6911,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -7498,11 +6919,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -7525,19 +6946,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -7665,19 +7086,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>3.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -7764,15 +7185,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2913.87</v>
+        <v>2790.4500000000003</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>136.39400000000001</v>
+        <v>116.47399999999999</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>437.00200000000007</v>
+        <v>379.80199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -7789,7 +7210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8102,19 +7525,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -8207,19 +7630,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>226.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>36.959999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -8312,19 +7735,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -8347,19 +7770,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>563.4</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.940000000000001</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104.58</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -8454,7 +7877,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -8462,11 +7885,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>6.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -8516,15 +7939,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>1601.67</v>
+        <v>2913.87</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>90.454000000000008</v>
+        <v>136.39400000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>272.63200000000001</v>
+        <v>437.00200000000007</v>
       </c>
     </row>
   </sheetData>
@@ -8784,19 +8207,19 @@
         <v>55.05</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
-        <v>372.42500000000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>55.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -8959,19 +8382,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>226.20000000000002</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.959999999999994</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -8994,7 +8417,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -9002,11 +8425,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -9064,19 +8487,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -9099,19 +8522,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>563.4</v>
+        <v>0</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>104.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -9169,19 +8592,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -9206,7 +8629,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -9214,11 +8637,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>0</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -9268,15 +8691,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2776.2950000000001</v>
+        <v>1601.67</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>116.544</v>
+        <v>90.454000000000008</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>396.452</v>
+        <v>272.63200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9290,6 +8713,758 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>372.42500000000001</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2776.2950000000001</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>116.544</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>396.452</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -10043,7 +10218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -10797,7 +10972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -11549,7 +11724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -12303,7 +12478,761 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>446.1</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>44.500000000000007</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>331.08000000000004</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9839999999999991</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>435</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>96.000000000000014</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>3064.7400000000002</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>163.39000000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>435.61399999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -13057,11 +13986,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13809,7 +14738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -14563,7 +15492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -15317,7 +16246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -16059,760 +16988,6 @@
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
         <v>283.27199999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:K22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>647.88</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>35.82</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>372.42500000000001</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>12.25</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>55.05</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>248.31000000000003</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7379999999999995</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>55.536000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>90.48</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>14.783999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>563.4</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>104.58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2563.7750000000001</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>130.54400000000001</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>419.286</v>
       </c>
     </row>
   </sheetData>
@@ -16853,7 +17028,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -17074,19 +17249,19 @@
         <v>55.05</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>372.42500000000001</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>55.05</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -17129,7 +17304,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -17249,19 +17424,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90.48</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.783999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -17354,19 +17529,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -17558,15 +17733,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2739.87</v>
+        <v>2563.7750000000001</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>136.29400000000001</v>
+        <v>130.54400000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>428.20199999999994</v>
+        <v>419.286</v>
       </c>
     </row>
   </sheetData>
@@ -17581,172 +17756,752 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:E18"/>
+  <dimension ref="B2:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:E12"/>
+      <selection activeCell="J22" sqref="J22:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="D7">
-        <f>2*7.049</f>
-        <v>14.098000000000001</v>
-      </c>
-      <c r="E7">
-        <f>2*1.484</f>
-        <v>2.968</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="D8">
-        <v>5.7</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="D9">
-        <f>2*11.94</f>
-        <v>23.88</v>
-      </c>
-      <c r="E9">
-        <f>2*32.2</f>
-        <v>64.400000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="D10">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="E10">
-        <v>26.216999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="D11">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="E11">
-        <v>6.05</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>24.5</v>
-      </c>
-      <c r="E12">
-        <v>110.1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13">
-        <f>2*12.6</f>
-        <v>25.2</v>
-      </c>
-      <c r="E13">
-        <f>2*26.2</f>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <f>2*12.6</f>
-        <v>25.2</v>
-      </c>
-      <c r="E14">
-        <f>2*26.2</f>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="E15">
-        <v>18.512</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16">
-        <f>10*0.02</f>
-        <v>0.2</v>
-      </c>
-      <c r="E16">
-        <f>10*3.78</f>
-        <v>37.799999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <f>1.8/12*50</f>
-        <v>7.5</v>
-      </c>
-      <c r="E17">
-        <f>7.392/12*50</f>
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18">
-        <f>SUM(D7:D17)</f>
-        <v>179.10699999999997</v>
-      </c>
-      <c r="E18">
-        <f>SUM(E7:E17)</f>
-        <v>401.64699999999999</v>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2739.87</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>136.29400000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>428.20199999999994</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -9,34 +9,35 @@
   <sheets>
     <sheet name="template" sheetId="10" r:id="rId1"/>
     <sheet name="参考" sheetId="1" r:id="rId2"/>
-    <sheet name="3-18" sheetId="30" r:id="rId3"/>
-    <sheet name="3-17" sheetId="29" r:id="rId4"/>
-    <sheet name="3-16" sheetId="28" r:id="rId5"/>
-    <sheet name="3-15" sheetId="27" r:id="rId6"/>
-    <sheet name="3-14" sheetId="26" r:id="rId7"/>
-    <sheet name="3-10" sheetId="25" r:id="rId8"/>
-    <sheet name="3-9" sheetId="24" r:id="rId9"/>
-    <sheet name="2-12" sheetId="2" r:id="rId10"/>
-    <sheet name="2-13" sheetId="3" r:id="rId11"/>
-    <sheet name="2-14" sheetId="4" r:id="rId12"/>
-    <sheet name="2-15" sheetId="5" r:id="rId13"/>
-    <sheet name="2-16" sheetId="6" r:id="rId14"/>
-    <sheet name="2-17" sheetId="7" r:id="rId15"/>
-    <sheet name="2-18" sheetId="8" r:id="rId16"/>
-    <sheet name="2-19" sheetId="9" r:id="rId17"/>
-    <sheet name="2-20" sheetId="11" r:id="rId18"/>
-    <sheet name="2-21" sheetId="12" r:id="rId19"/>
-    <sheet name="2-22" sheetId="13" r:id="rId20"/>
-    <sheet name="2-23" sheetId="14" r:id="rId21"/>
-    <sheet name="2-28" sheetId="15" r:id="rId22"/>
-    <sheet name="3-1" sheetId="16" r:id="rId23"/>
-    <sheet name="3-2" sheetId="17" r:id="rId24"/>
-    <sheet name="3-3" sheetId="18" r:id="rId25"/>
-    <sheet name="3-4" sheetId="19" r:id="rId26"/>
-    <sheet name="3-5" sheetId="20" r:id="rId27"/>
-    <sheet name="3-6" sheetId="21" r:id="rId28"/>
-    <sheet name="3-7" sheetId="22" r:id="rId29"/>
-    <sheet name="3-8" sheetId="23" r:id="rId30"/>
+    <sheet name="3-19" sheetId="31" r:id="rId3"/>
+    <sheet name="3-18" sheetId="30" r:id="rId4"/>
+    <sheet name="3-17" sheetId="29" r:id="rId5"/>
+    <sheet name="3-16" sheetId="28" r:id="rId6"/>
+    <sheet name="3-15" sheetId="27" r:id="rId7"/>
+    <sheet name="3-14" sheetId="26" r:id="rId8"/>
+    <sheet name="3-10" sheetId="25" r:id="rId9"/>
+    <sheet name="3-9" sheetId="24" r:id="rId10"/>
+    <sheet name="2-12" sheetId="2" r:id="rId11"/>
+    <sheet name="2-13" sheetId="3" r:id="rId12"/>
+    <sheet name="2-14" sheetId="4" r:id="rId13"/>
+    <sheet name="2-15" sheetId="5" r:id="rId14"/>
+    <sheet name="2-16" sheetId="6" r:id="rId15"/>
+    <sheet name="2-17" sheetId="7" r:id="rId16"/>
+    <sheet name="2-18" sheetId="8" r:id="rId17"/>
+    <sheet name="2-19" sheetId="9" r:id="rId18"/>
+    <sheet name="2-20" sheetId="11" r:id="rId19"/>
+    <sheet name="2-21" sheetId="12" r:id="rId20"/>
+    <sheet name="2-22" sheetId="13" r:id="rId21"/>
+    <sheet name="2-23" sheetId="14" r:id="rId22"/>
+    <sheet name="2-28" sheetId="15" r:id="rId23"/>
+    <sheet name="3-1" sheetId="16" r:id="rId24"/>
+    <sheet name="3-2" sheetId="17" r:id="rId25"/>
+    <sheet name="3-3" sheetId="18" r:id="rId26"/>
+    <sheet name="3-4" sheetId="19" r:id="rId27"/>
+    <sheet name="3-5" sheetId="20" r:id="rId28"/>
+    <sheet name="3-6" sheetId="21" r:id="rId29"/>
+    <sheet name="3-7" sheetId="22" r:id="rId30"/>
+    <sheet name="3-8" sheetId="23" r:id="rId31"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="104">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1630,1277 +1631,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:E18"/>
+  <dimension ref="B2:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:E12"/>
+      <selection activeCell="J22" sqref="J22:K22"/>
     </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <f>2*7.049</f>
-        <v>14.098000000000001</v>
-      </c>
-      <c r="E7">
-        <f>2*1.484</f>
-        <v>2.968</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>5.7</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <f>2*11.94</f>
-        <v>23.88</v>
-      </c>
-      <c r="E9">
-        <f>2*32.2</f>
-        <v>64.400000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="E10">
-        <v>26.216999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="E11">
-        <v>6.05</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>24.5</v>
-      </c>
-      <c r="E12">
-        <v>110.1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13">
-        <f>2*12.6</f>
-        <v>25.2</v>
-      </c>
-      <c r="E13">
-        <f>2*26.2</f>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <f>2*12.6</f>
-        <v>25.2</v>
-      </c>
-      <c r="E14">
-        <f>2*26.2</f>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="E15">
-        <v>18.512</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16">
-        <f>10*0.02</f>
-        <v>0.2</v>
-      </c>
-      <c r="E16">
-        <f>10*3.78</f>
-        <v>37.799999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <f>1.8/12*50</f>
-        <v>7.5</v>
-      </c>
-      <c r="E17">
-        <f>7.392/12*50</f>
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18">
-        <f>SUM(D7:D17)</f>
-        <v>179.10699999999997</v>
-      </c>
-      <c r="E18">
-        <f>SUM(E7:E17)</f>
-        <v>401.64699999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6">
-        <f>4*7.049</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="E6">
-        <f>4*1.484</f>
-        <v>5.9359999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7">
-        <f>3*11.94</f>
-        <v>35.82</v>
-      </c>
-      <c r="E7">
-        <f>3*32.2</f>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8">
-        <f>2*1.246</f>
-        <v>2.492</v>
-      </c>
-      <c r="E8">
-        <f>2*18.512</f>
-        <v>37.024000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9">
-        <f>2*3</f>
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <f>2*4.8</f>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10">
-        <f>3*12.6</f>
-        <v>37.799999999999997</v>
-      </c>
-      <c r="E10">
-        <f>3*26.2</f>
-        <v>78.599999999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11">
-        <v>12.18</v>
-      </c>
-      <c r="E11">
-        <v>38.400000000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="E12">
-        <v>78.75</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="E13">
-        <v>34.86</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14">
-        <f>1.8/12*50</f>
-        <v>7.5</v>
-      </c>
-      <c r="E14">
-        <f>7.392/12*50</f>
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20">
-        <f>SUM(D6:D14)</f>
-        <v>156.56799999999998</v>
-      </c>
-      <c r="E20">
-        <f>SUM(E6:E14)</f>
-        <v>410.57</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4">
-        <f>4*7.049</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="E4">
-        <f>4*1.484</f>
-        <v>5.9359999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5">
-        <f>3*11.94</f>
-        <v>35.82</v>
-      </c>
-      <c r="E5">
-        <f>3*32.2</f>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6">
-        <f>2*1.246</f>
-        <v>2.492</v>
-      </c>
-      <c r="E6">
-        <f>2*18.512</f>
-        <v>37.024000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <f>2*3</f>
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <f>2*4.8</f>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8">
-        <f>2*4.98</f>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="E8">
-        <f>2*34.86</f>
-        <v>69.72</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9">
-        <f>2*1.246</f>
-        <v>2.492</v>
-      </c>
-      <c r="E9">
-        <f>2*18.512</f>
-        <v>37.024000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10">
-        <f>5*2.72</f>
-        <v>13.600000000000001</v>
-      </c>
-      <c r="E10">
-        <f>5*13.76</f>
-        <v>68.8</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11">
-        <f>3.5*2.7</f>
-        <v>9.4500000000000011</v>
-      </c>
-      <c r="E11">
-        <f>2.5*24.2</f>
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12">
-        <f>2*12.6</f>
-        <v>25.2</v>
-      </c>
-      <c r="E12">
-        <f>2*26.2</f>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <f>SUM(D4:D13)</f>
-        <v>133.21000000000004</v>
-      </c>
-      <c r="E14">
-        <f>SUM(E4:E13)</f>
-        <v>437.60399999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4">
-        <f>4*7.049</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="E4">
-        <f>4*1.484</f>
-        <v>5.9359999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5">
-        <f>3*11.94</f>
-        <v>35.82</v>
-      </c>
-      <c r="E5">
-        <f>3*32.2</f>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6">
-        <f>4*1.246</f>
-        <v>4.984</v>
-      </c>
-      <c r="E6">
-        <f>4*18.512</f>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <f>2*3</f>
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <f>2*4.8</f>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8">
-        <f>2*4.98</f>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="E8">
-        <f>2*34.86</f>
-        <v>69.72</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9">
-        <v>12.18</v>
-      </c>
-      <c r="E9">
-        <v>38.400000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="E10">
-        <v>78.75</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11">
-        <f>3*1.8</f>
-        <v>5.4</v>
-      </c>
-      <c r="E11">
-        <f>3*7.392</f>
-        <v>22.176000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12">
-        <v>12.6</v>
-      </c>
-      <c r="E12">
-        <v>26.2</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <f>SUM(D4:D13)</f>
-        <v>136.74</v>
-      </c>
-      <c r="E14">
-        <f>SUM(E4:E13)</f>
-        <v>421.42999999999995</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4">
-        <f>4*7.049</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="E4">
-        <f>4*1.484</f>
-        <v>5.9359999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5">
-        <f>3*11.94</f>
-        <v>35.82</v>
-      </c>
-      <c r="E5">
-        <f>3*32.2</f>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6">
-        <f>4*1.246</f>
-        <v>4.984</v>
-      </c>
-      <c r="E6">
-        <f>4*18.512</f>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <f>2*3</f>
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <f>2*4.8</f>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8">
-        <f>1*4.98</f>
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="E8">
-        <f>1*34.86</f>
-        <v>34.86</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9">
-        <f>5*2.72</f>
-        <v>13.600000000000001</v>
-      </c>
-      <c r="E9">
-        <f>5*13.76</f>
-        <v>68.8</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10">
-        <v>12.48</v>
-      </c>
-      <c r="E10">
-        <v>62.070000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <f>2*12.6</f>
-        <v>25.2</v>
-      </c>
-      <c r="E11">
-        <f>2*26.2</f>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <f>SUM(D4:D13)</f>
-        <v>131.26000000000002</v>
-      </c>
-      <c r="E14">
-        <f>SUM(E4:E13)</f>
-        <v>404.31399999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4">
-        <f>4*7.049</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="E4">
-        <f>4*1.484</f>
-        <v>5.9359999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5">
-        <f>3*11.94</f>
-        <v>35.82</v>
-      </c>
-      <c r="E5">
-        <f>3*32.2</f>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6">
-        <f>4*1.246</f>
-        <v>4.984</v>
-      </c>
-      <c r="E6">
-        <f>4*18.512</f>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <f>2*3</f>
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <f>2*4.8</f>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8">
-        <f>2*4.98</f>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="E8">
-        <f>2*34.86</f>
-        <v>69.72</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9">
-        <f>5*2.72</f>
-        <v>13.600000000000001</v>
-      </c>
-      <c r="E9">
-        <f>5*13.76</f>
-        <v>68.8</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10">
-        <v>12.18</v>
-      </c>
-      <c r="E10">
-        <v>38.400000000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <f>2*12.6</f>
-        <v>25.2</v>
-      </c>
-      <c r="E11">
-        <f>2*26.2</f>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12">
-        <f>3*1.8</f>
-        <v>5.4</v>
-      </c>
-      <c r="E12">
-        <f>3*7.392</f>
-        <v>22.176000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <f>SUM(D4:D13)</f>
-        <v>141.34</v>
-      </c>
-      <c r="E14">
-        <f>SUM(E4:E13)</f>
-        <v>437.68</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4">
-        <f>2*7.049</f>
-        <v>14.098000000000001</v>
-      </c>
-      <c r="E4">
-        <f>2*1.484</f>
-        <v>2.968</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5">
-        <f>3*11.94</f>
-        <v>35.82</v>
-      </c>
-      <c r="E5">
-        <f>3*32.2</f>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6">
-        <v>5.7</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7">
-        <f>2*3</f>
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <f>2*4.8</f>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8">
-        <f>4*1.246</f>
-        <v>4.984</v>
-      </c>
-      <c r="E8">
-        <f>4*18.512</f>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9">
-        <f>2*4.98</f>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="E9">
-        <f>2*34.86</f>
-        <v>69.72</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10">
-        <f>5*2.72</f>
-        <v>13.600000000000001</v>
-      </c>
-      <c r="E10">
-        <f>5*13.76</f>
-        <v>68.8</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="E11">
-        <v>6.05</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="E12">
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13">
-        <f>2*12.6</f>
-        <v>25.2</v>
-      </c>
-      <c r="E13">
-        <f>2*26.2</f>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16">
-        <f>SUM(D4:D15)</f>
-        <v>163.762</v>
-      </c>
-      <c r="E16">
-        <f>SUM(E4:E15)</f>
-        <v>418.58599999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E15"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4">
-        <f>2*7.049</f>
-        <v>14.098000000000001</v>
-      </c>
-      <c r="E4">
-        <f>2*1.484</f>
-        <v>2.968</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5">
-        <f>3*11.94</f>
-        <v>35.82</v>
-      </c>
-      <c r="E5">
-        <f>3*32.2</f>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6">
-        <f>4*1.246</f>
-        <v>4.984</v>
-      </c>
-      <c r="E6">
-        <f>4*18.512</f>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7">
-        <f>2*4.98</f>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="E7">
-        <f>2*34.86</f>
-        <v>69.72</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="E8">
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="E9">
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>12.25</v>
-      </c>
-      <c r="E10">
-        <v>55.05</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11">
-        <f>3*1.8</f>
-        <v>5.4</v>
-      </c>
-      <c r="E11">
-        <f>3*7.392</f>
-        <v>22.176000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12">
-        <f>2*12.6</f>
-        <v>25.2</v>
-      </c>
-      <c r="E12">
-        <f>2*26.2</f>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13">
-        <f>1*3</f>
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <f>1*4.8</f>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15">
-        <f>SUM(D4:D14)</f>
-        <v>124.53700000000001</v>
-      </c>
-      <c r="E15">
-        <f>SUM(E4:E14)</f>
-        <v>424.21199999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3038,19 +1773,19 @@
         <v>32.200000000000003</v>
       </c>
       <c r="H5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="2"/>
-        <v>431.92</v>
+        <v>647.88</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>23.88</v>
+        <v>35.82</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>64.400000000000006</v>
+        <v>96.600000000000009</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -3073,19 +1808,19 @@
         <v>26.216999999999999</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="2"/>
-        <v>151.34399999999999</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>7.0830000000000002</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="1"/>
-        <v>26.216999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -3128,7 +1863,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -3197,7 +1932,7 @@
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="7">
@@ -3248,19 +1983,19 @@
         <v>18.512</v>
       </c>
       <c r="H11" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="2"/>
-        <v>331.08000000000004</v>
+        <v>248.31000000000003</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>4.9839999999999991</v>
+        <v>3.7379999999999995</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>74.048000000000002</v>
+        <v>55.536000000000001</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -3318,19 +2053,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>180.96</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>7.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>29.567999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -3353,7 +2088,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -3361,11 +2096,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>9.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -3385,22 +2120,22 @@
         <v>12.18</v>
       </c>
       <c r="G15" s="8">
-        <v>38.4</v>
+        <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>12.18</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>38.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -3423,19 +2158,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -3458,19 +2193,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>375.59999999999997</v>
+        <v>563.4</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>9.9600000000000009</v>
+        <v>14.940000000000001</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>69.72</v>
+        <v>104.58</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -3627,21 +2362,1289 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2498.7640000000001</v>
+        <v>2739.87</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>131.483</v>
+        <v>136.29400000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>404.68899999999996</v>
+        <v>428.20199999999994</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D22:H22"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f>2*7.049</f>
+        <v>14.098000000000001</v>
+      </c>
+      <c r="E7">
+        <f>2*1.484</f>
+        <v>2.968</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>5.7</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <f>2*11.94</f>
+        <v>23.88</v>
+      </c>
+      <c r="E9">
+        <f>2*32.2</f>
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="E10">
+        <v>26.216999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="E11">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>24.5</v>
+      </c>
+      <c r="E12">
+        <v>110.1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E13">
+        <f>2*26.2</f>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E14">
+        <f>2*26.2</f>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="E15">
+        <v>18.512</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <f>10*0.02</f>
+        <v>0.2</v>
+      </c>
+      <c r="E16">
+        <f>10*3.78</f>
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <f>1.8/12*50</f>
+        <v>7.5</v>
+      </c>
+      <c r="E17">
+        <f>7.392/12*50</f>
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D7:D17)</f>
+        <v>179.10699999999997</v>
+      </c>
+      <c r="E18">
+        <f>SUM(E7:E17)</f>
+        <v>401.64699999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <f>4*7.049</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="E6">
+        <f>4*1.484</f>
+        <v>5.9359999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E7">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <f>2*1.246</f>
+        <v>2.492</v>
+      </c>
+      <c r="E8">
+        <f>2*18.512</f>
+        <v>37.024000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <f>2*4.8</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <f>3*12.6</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="E10">
+        <f>3*26.2</f>
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>12.18</v>
+      </c>
+      <c r="E11">
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="E12">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E13">
+        <v>34.86</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <f>1.8/12*50</f>
+        <v>7.5</v>
+      </c>
+      <c r="E14">
+        <f>7.392/12*50</f>
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D6:D14)</f>
+        <v>156.56799999999998</v>
+      </c>
+      <c r="E20">
+        <f>SUM(E6:E14)</f>
+        <v>410.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <f>4*7.049</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="E4">
+        <f>4*1.484</f>
+        <v>5.9359999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E5">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <f>2*1.246</f>
+        <v>2.492</v>
+      </c>
+      <c r="E6">
+        <f>2*18.512</f>
+        <v>37.024000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>2*4.8</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <f>2*4.98</f>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E8">
+        <f>2*34.86</f>
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <f>2*1.246</f>
+        <v>2.492</v>
+      </c>
+      <c r="E9">
+        <f>2*18.512</f>
+        <v>37.024000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <f>5*2.72</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="E10">
+        <f>5*13.76</f>
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <f>3.5*2.7</f>
+        <v>9.4500000000000011</v>
+      </c>
+      <c r="E11">
+        <f>2.5*24.2</f>
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E12">
+        <f>2*26.2</f>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D4:D13)</f>
+        <v>133.21000000000004</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E4:E13)</f>
+        <v>437.60399999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <f>4*7.049</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="E4">
+        <f>4*1.484</f>
+        <v>5.9359999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E5">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <f>4*1.246</f>
+        <v>4.984</v>
+      </c>
+      <c r="E6">
+        <f>4*18.512</f>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>2*4.8</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <f>2*4.98</f>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E8">
+        <f>2*34.86</f>
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>12.18</v>
+      </c>
+      <c r="E9">
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="E10">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <f>3*1.8</f>
+        <v>5.4</v>
+      </c>
+      <c r="E11">
+        <f>3*7.392</f>
+        <v>22.176000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>12.6</v>
+      </c>
+      <c r="E12">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D4:D13)</f>
+        <v>136.74</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E4:E13)</f>
+        <v>421.42999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <f>4*7.049</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="E4">
+        <f>4*1.484</f>
+        <v>5.9359999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E5">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <f>4*1.246</f>
+        <v>4.984</v>
+      </c>
+      <c r="E6">
+        <f>4*18.512</f>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>2*4.8</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <f>1*4.98</f>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E8">
+        <f>1*34.86</f>
+        <v>34.86</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <f>5*2.72</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="E9">
+        <f>5*13.76</f>
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>12.48</v>
+      </c>
+      <c r="E10">
+        <v>62.070000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E11">
+        <f>2*26.2</f>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D4:D13)</f>
+        <v>131.26000000000002</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E4:E13)</f>
+        <v>404.31399999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <f>4*7.049</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="E4">
+        <f>4*1.484</f>
+        <v>5.9359999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E5">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <f>4*1.246</f>
+        <v>4.984</v>
+      </c>
+      <c r="E6">
+        <f>4*18.512</f>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>2*4.8</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <f>2*4.98</f>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E8">
+        <f>2*34.86</f>
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <f>5*2.72</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="E9">
+        <f>5*13.76</f>
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>12.18</v>
+      </c>
+      <c r="E10">
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E11">
+        <f>2*26.2</f>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <f>3*1.8</f>
+        <v>5.4</v>
+      </c>
+      <c r="E12">
+        <f>3*7.392</f>
+        <v>22.176000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D4:D13)</f>
+        <v>141.34</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E4:E13)</f>
+        <v>437.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <f>2*7.049</f>
+        <v>14.098000000000001</v>
+      </c>
+      <c r="E4">
+        <f>2*1.484</f>
+        <v>2.968</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E5">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>5.7</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>2*4.8</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <f>4*1.246</f>
+        <v>4.984</v>
+      </c>
+      <c r="E8">
+        <f>4*18.512</f>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <f>2*4.98</f>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E9">
+        <f>2*34.86</f>
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <f>5*2.72</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="E10">
+        <f>5*13.76</f>
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="E11">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="E12">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E13">
+        <f>2*26.2</f>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D4:D15)</f>
+        <v>163.762</v>
+      </c>
+      <c r="E16">
+        <f>SUM(E4:E15)</f>
+        <v>418.58599999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E15"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <f>2*7.049</f>
+        <v>14.098000000000001</v>
+      </c>
+      <c r="E4">
+        <f>2*1.484</f>
+        <v>2.968</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E5">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <f>4*1.246</f>
+        <v>4.984</v>
+      </c>
+      <c r="E6">
+        <f>4*18.512</f>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <f>2*4.98</f>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E7">
+        <f>2*34.86</f>
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="E8">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="E9">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>12.25</v>
+      </c>
+      <c r="E10">
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <f>3*1.8</f>
+        <v>5.4</v>
+      </c>
+      <c r="E11">
+        <f>3*7.392</f>
+        <v>22.176000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E12">
+        <f>2*26.2</f>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13">
+        <f>1*3</f>
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f>1*4.8</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D4:D14)</f>
+        <v>124.53700000000001</v>
+      </c>
+      <c r="E15">
+        <f>SUM(E4:E14)</f>
+        <v>424.21199999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3790,19 +3793,19 @@
         <v>32.200000000000003</v>
       </c>
       <c r="H5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="2"/>
-        <v>647.88</v>
+        <v>431.92</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>35.82</v>
+        <v>23.88</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -3825,19 +3828,19 @@
         <v>26.216999999999999</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>151.34399999999999</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.0830000000000002</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.216999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -3880,7 +3883,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -4070,19 +4073,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>180.96</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29.567999999999998</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -4137,22 +4140,22 @@
         <v>12.18</v>
       </c>
       <c r="G15" s="8">
-        <v>38.400000000000006</v>
+        <v>38.4</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -4175,19 +4178,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -4210,19 +4213,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>563.4</v>
+        <v>375.59999999999997</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>104.58</v>
+        <v>69.72</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -4245,19 +4248,19 @@
         <v>62.070000000000007</v>
       </c>
       <c r="H18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>327.78000000000003</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>12.48</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>62.070000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -4317,7 +4320,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -4325,11 +4328,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>0</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -4379,15 +4382,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>3150.42</v>
+        <v>2498.7640000000001</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>149.22</v>
+        <v>131.483</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>483.98399999999998</v>
+        <v>404.68899999999996</v>
       </c>
     </row>
   </sheetData>
@@ -5263,19 +5266,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -5298,19 +5301,19 @@
         <v>18.512</v>
       </c>
       <c r="H11" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="2"/>
-        <v>289.69500000000005</v>
+        <v>331.08000000000004</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>4.3609999999999989</v>
+        <v>4.9839999999999991</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>64.792000000000002</v>
+        <v>74.048000000000002</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -5368,19 +5371,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>226.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>36.959999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -5438,19 +5441,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>12.18</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -5543,19 +5546,19 @@
         <v>62.070000000000007</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>327.78000000000003</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62.070000000000007</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -5677,15 +5680,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>3058.0350000000003</v>
+        <v>3150.42</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>132.09700000000001</v>
+        <v>149.22</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>435.61799999999999</v>
+        <v>483.98399999999998</v>
       </c>
     </row>
   </sheetData>
@@ -5699,6 +5702,758 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>289.69500000000005</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3609999999999989</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>64.792000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>226.20000000000002</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>36.959999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>386.58000000000004</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>12.18</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>3058.0350000000003</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>132.09700000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>435.61799999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -6440,760 +7195,6 @@
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
         <v>391.26799999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>647.88</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>35.82</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>248.31000000000003</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7379999999999995</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>55.536000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>12.18</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>639</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>78.75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>563.4</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>104.58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2790.4500000000003</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>116.47399999999999</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>379.80199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -7234,7 +7235,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -7510,7 +7511,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -7525,19 +7526,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>52.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -7665,7 +7666,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -7673,11 +7674,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -7700,19 +7701,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -7840,19 +7841,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>3.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -7939,15 +7940,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2913.87</v>
+        <v>2790.4500000000003</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>136.39400000000001</v>
+        <v>116.47399999999999</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>437.00200000000007</v>
+        <v>379.80199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -7964,7 +7965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8277,19 +8280,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -8382,19 +8385,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>226.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>36.959999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -8487,19 +8490,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -8522,19 +8525,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>563.4</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.940000000000001</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104.58</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -8629,7 +8632,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -8637,11 +8640,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>6.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -8691,15 +8694,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>1601.67</v>
+        <v>2913.87</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>90.454000000000008</v>
+        <v>136.39400000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>272.63200000000001</v>
+        <v>437.00200000000007</v>
       </c>
     </row>
   </sheetData>
@@ -8959,19 +8962,19 @@
         <v>55.05</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
-        <v>372.42500000000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>55.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -9134,19 +9137,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>226.20000000000002</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.959999999999994</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -9169,7 +9172,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -9177,11 +9180,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -9239,19 +9242,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -9274,19 +9277,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>563.4</v>
+        <v>0</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>104.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -9344,19 +9347,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -9381,7 +9384,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -9389,11 +9392,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>0</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -9443,15 +9446,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2776.2950000000001</v>
+        <v>1601.67</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>116.544</v>
+        <v>90.454000000000008</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>396.452</v>
+        <v>272.63200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9465,6 +9468,758 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>372.42500000000001</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2776.2950000000001</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>116.544</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>396.452</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -10218,7 +10973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -10972,7 +11727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -11724,7 +12479,761 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>82.77000000000001</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>18.512</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>1371.9299999999998</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>97.262</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>207.84800000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -12478,761 +13987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:K22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>647.88</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>35.82</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>446.1</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>44.500000000000007</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>6.05</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>331.08000000000004</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>4.9839999999999991</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>563.4</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>104.58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>435</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>9.75</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>96.000000000000014</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>3064.7400000000002</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>163.39000000000001</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>435.61399999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -13990,6 +14745,760 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>446.1</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>44.500000000000007</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>331.08000000000004</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9839999999999991</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>435</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>96.000000000000014</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>3064.7400000000002</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>163.39000000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>435.61399999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14738,7 +16247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -15492,7 +17001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -16246,7 +17755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -16988,760 +18497,6 @@
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
         <v>283.27199999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:K22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>647.88</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>35.82</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>372.42500000000001</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>12.25</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>55.05</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>248.31000000000003</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7379999999999995</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>55.536000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>90.48</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>14.783999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>563.4</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>104.58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2563.7750000000001</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>130.54400000000001</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>419.286</v>
       </c>
     </row>
   </sheetData>
@@ -17782,7 +18537,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -18003,19 +18758,19 @@
         <v>55.05</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>372.42500000000001</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>55.05</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -18058,7 +18813,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -18178,19 +18933,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90.48</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.783999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -18283,19 +19038,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -18487,15 +19242,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2739.87</v>
+        <v>2563.7750000000001</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>136.29400000000001</v>
+        <v>130.54400000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>428.20199999999994</v>
+        <v>419.286</v>
       </c>
     </row>
   </sheetData>

--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -9,37 +9,38 @@
   <sheets>
     <sheet name="template" sheetId="10" r:id="rId1"/>
     <sheet name="参考" sheetId="1" r:id="rId2"/>
-    <sheet name="3-21" sheetId="33" r:id="rId3"/>
-    <sheet name="3-20" sheetId="32" r:id="rId4"/>
-    <sheet name="3-19" sheetId="31" r:id="rId5"/>
-    <sheet name="3-18" sheetId="30" r:id="rId6"/>
-    <sheet name="3-17" sheetId="29" r:id="rId7"/>
-    <sheet name="3-16" sheetId="28" r:id="rId8"/>
-    <sheet name="3-15" sheetId="27" r:id="rId9"/>
-    <sheet name="3-14" sheetId="26" r:id="rId10"/>
-    <sheet name="3-10" sheetId="25" r:id="rId11"/>
-    <sheet name="3-9" sheetId="24" r:id="rId12"/>
-    <sheet name="2-12" sheetId="2" r:id="rId13"/>
-    <sheet name="2-13" sheetId="3" r:id="rId14"/>
-    <sheet name="2-14" sheetId="4" r:id="rId15"/>
-    <sheet name="2-15" sheetId="5" r:id="rId16"/>
-    <sheet name="2-16" sheetId="6" r:id="rId17"/>
-    <sheet name="2-17" sheetId="7" r:id="rId18"/>
-    <sheet name="2-18" sheetId="8" r:id="rId19"/>
-    <sheet name="2-19" sheetId="9" r:id="rId20"/>
-    <sheet name="2-20" sheetId="11" r:id="rId21"/>
-    <sheet name="2-21" sheetId="12" r:id="rId22"/>
-    <sheet name="2-22" sheetId="13" r:id="rId23"/>
-    <sheet name="2-23" sheetId="14" r:id="rId24"/>
-    <sheet name="2-28" sheetId="15" r:id="rId25"/>
-    <sheet name="3-1" sheetId="16" r:id="rId26"/>
-    <sheet name="3-2" sheetId="17" r:id="rId27"/>
-    <sheet name="3-3" sheetId="18" r:id="rId28"/>
-    <sheet name="3-4" sheetId="19" r:id="rId29"/>
-    <sheet name="3-5" sheetId="20" r:id="rId30"/>
-    <sheet name="3-6" sheetId="21" r:id="rId31"/>
-    <sheet name="3-7" sheetId="22" r:id="rId32"/>
-    <sheet name="3-8" sheetId="23" r:id="rId33"/>
+    <sheet name="3-22" sheetId="34" r:id="rId3"/>
+    <sheet name="3-21" sheetId="33" r:id="rId4"/>
+    <sheet name="3-20" sheetId="32" r:id="rId5"/>
+    <sheet name="3-19" sheetId="31" r:id="rId6"/>
+    <sheet name="3-18" sheetId="30" r:id="rId7"/>
+    <sheet name="3-17" sheetId="29" r:id="rId8"/>
+    <sheet name="3-16" sheetId="28" r:id="rId9"/>
+    <sheet name="3-15" sheetId="27" r:id="rId10"/>
+    <sheet name="3-14" sheetId="26" r:id="rId11"/>
+    <sheet name="3-10" sheetId="25" r:id="rId12"/>
+    <sheet name="3-9" sheetId="24" r:id="rId13"/>
+    <sheet name="2-12" sheetId="2" r:id="rId14"/>
+    <sheet name="2-13" sheetId="3" r:id="rId15"/>
+    <sheet name="2-14" sheetId="4" r:id="rId16"/>
+    <sheet name="2-15" sheetId="5" r:id="rId17"/>
+    <sheet name="2-16" sheetId="6" r:id="rId18"/>
+    <sheet name="2-17" sheetId="7" r:id="rId19"/>
+    <sheet name="2-18" sheetId="8" r:id="rId20"/>
+    <sheet name="2-19" sheetId="9" r:id="rId21"/>
+    <sheet name="2-20" sheetId="11" r:id="rId22"/>
+    <sheet name="2-21" sheetId="12" r:id="rId23"/>
+    <sheet name="2-22" sheetId="13" r:id="rId24"/>
+    <sheet name="2-23" sheetId="14" r:id="rId25"/>
+    <sheet name="2-28" sheetId="15" r:id="rId26"/>
+    <sheet name="3-1" sheetId="16" r:id="rId27"/>
+    <sheet name="3-2" sheetId="17" r:id="rId28"/>
+    <sheet name="3-3" sheetId="18" r:id="rId29"/>
+    <sheet name="3-4" sheetId="19" r:id="rId30"/>
+    <sheet name="3-5" sheetId="20" r:id="rId31"/>
+    <sheet name="3-6" sheetId="21" r:id="rId32"/>
+    <sheet name="3-7" sheetId="22" r:id="rId33"/>
+    <sheet name="3-8" sheetId="23" r:id="rId34"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="104">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1636,6 +1637,760 @@
   <dimension ref="B2:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>331.08000000000004</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9839999999999991</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2357.64</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>119.84</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>406.36400000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -2373,760 +3128,6 @@
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
         <v>283.27199999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:K22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>647.88</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>35.82</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>372.42500000000001</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>12.25</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>55.05</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>248.31000000000003</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7379999999999995</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>55.536000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>90.48</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>14.783999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>563.4</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>104.58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2563.7750000000001</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>130.54400000000001</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>419.286</v>
       </c>
     </row>
   </sheetData>
@@ -3167,7 +3168,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -3388,19 +3389,19 @@
         <v>55.05</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>372.42500000000001</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>55.05</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -3443,7 +3444,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -3563,19 +3564,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90.48</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.783999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -3668,19 +3669,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -3872,15 +3873,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2739.87</v>
+        <v>2563.7750000000001</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>136.29400000000001</v>
+        <v>130.54400000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>428.20199999999994</v>
+        <v>419.286</v>
       </c>
     </row>
   </sheetData>
@@ -3894,6 +3895,760 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2739.87</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>136.29400000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>428.20199999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:E18"/>
   <sheetViews>
@@ -4067,7 +4822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:E20"/>
   <sheetViews>
@@ -4220,7 +4975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -4378,7 +5133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -4530,7 +5285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -4672,7 +5427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -4820,172 +5575,6 @@
       <c r="E14">
         <f>SUM(E4:E13)</f>
         <v>437.68</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4">
-        <f>2*7.049</f>
-        <v>14.098000000000001</v>
-      </c>
-      <c r="E4">
-        <f>2*1.484</f>
-        <v>2.968</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5">
-        <f>3*11.94</f>
-        <v>35.82</v>
-      </c>
-      <c r="E5">
-        <f>3*32.2</f>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6">
-        <v>5.7</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7">
-        <f>2*3</f>
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <f>2*4.8</f>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8">
-        <f>4*1.246</f>
-        <v>4.984</v>
-      </c>
-      <c r="E8">
-        <f>4*18.512</f>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9">
-        <f>2*4.98</f>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="E9">
-        <f>2*34.86</f>
-        <v>69.72</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10">
-        <f>5*2.72</f>
-        <v>13.600000000000001</v>
-      </c>
-      <c r="E10">
-        <f>5*13.76</f>
-        <v>68.8</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="E11">
-        <v>6.05</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="E12">
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13">
-        <f>2*12.6</f>
-        <v>25.2</v>
-      </c>
-      <c r="E13">
-        <f>2*26.2</f>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16">
-        <f>SUM(D4:D15)</f>
-        <v>163.762</v>
-      </c>
-      <c r="E16">
-        <f>SUM(E4:E15)</f>
-        <v>418.58599999999996</v>
       </c>
     </row>
   </sheetData>
@@ -5543,6 +6132,172 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <f>2*7.049</f>
+        <v>14.098000000000001</v>
+      </c>
+      <c r="E4">
+        <f>2*1.484</f>
+        <v>2.968</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E5">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>5.7</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>2*4.8</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <f>4*1.246</f>
+        <v>4.984</v>
+      </c>
+      <c r="E8">
+        <f>4*18.512</f>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <f>2*4.98</f>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E9">
+        <f>2*34.86</f>
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <f>5*2.72</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="E10">
+        <f>5*13.76</f>
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="E11">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="E12">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E13">
+        <f>2*26.2</f>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D4:D15)</f>
+        <v>163.762</v>
+      </c>
+      <c r="E16">
+        <f>SUM(E4:E15)</f>
+        <v>418.58599999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -5701,758 +6456,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>431.92</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>23.88</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>64.400000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>151.34399999999999</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>26.216999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>331.08000000000004</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>4.9839999999999991</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>180.96</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>29.567999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>12.18</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>375.59999999999997</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>69.72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2498.7640000000001</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>131.483</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>404.68899999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6601,19 +6604,19 @@
         <v>32.200000000000003</v>
       </c>
       <c r="H5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="2"/>
-        <v>647.88</v>
+        <v>431.92</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>35.82</v>
+        <v>23.88</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -6636,19 +6639,19 @@
         <v>26.216999999999999</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>151.34399999999999</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.0830000000000002</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.216999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -6691,7 +6694,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -6881,19 +6884,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>180.96</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29.567999999999998</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -6948,22 +6951,22 @@
         <v>12.18</v>
       </c>
       <c r="G15" s="8">
-        <v>38.400000000000006</v>
+        <v>38.4</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -6986,19 +6989,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -7021,19 +7024,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>563.4</v>
+        <v>375.59999999999997</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>104.58</v>
+        <v>69.72</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -7056,19 +7059,19 @@
         <v>62.070000000000007</v>
       </c>
       <c r="H18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>327.78000000000003</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>12.48</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>62.070000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -7128,7 +7131,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -7136,11 +7139,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>0</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -7190,15 +7193,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>3150.42</v>
+        <v>2498.7640000000001</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>149.22</v>
+        <v>131.483</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>483.98399999999998</v>
+        <v>404.68899999999996</v>
       </c>
     </row>
   </sheetData>
@@ -7528,19 +7531,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -7563,19 +7566,19 @@
         <v>18.512</v>
       </c>
       <c r="H11" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="2"/>
-        <v>289.69500000000005</v>
+        <v>331.08000000000004</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>4.3609999999999989</v>
+        <v>4.9839999999999991</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>64.792000000000002</v>
+        <v>74.048000000000002</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -7633,19 +7636,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>226.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>36.959999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -7703,19 +7706,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>12.18</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -7808,19 +7811,19 @@
         <v>62.070000000000007</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>327.78000000000003</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62.070000000000007</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -7942,15 +7945,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>3058.0350000000003</v>
+        <v>3150.42</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>132.09700000000001</v>
+        <v>149.22</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>435.61799999999999</v>
+        <v>483.98399999999998</v>
       </c>
     </row>
   </sheetData>
@@ -7964,6 +7967,758 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>289.69500000000005</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3609999999999989</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>64.792000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>226.20000000000002</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>36.959999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>386.58000000000004</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>12.18</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>3058.0350000000003</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>132.09700000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>435.61799999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -8705,760 +9460,6 @@
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
         <v>391.26799999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>647.88</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>35.82</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>248.31000000000003</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7379999999999995</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>55.536000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>12.18</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>639</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>78.75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>563.4</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>104.58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2790.4500000000003</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>116.47399999999999</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>379.80199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -9499,7 +9500,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -9775,7 +9776,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -9790,19 +9791,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>52.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -9930,7 +9931,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -9938,11 +9939,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -9965,19 +9966,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -10105,19 +10106,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>3.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -10204,15 +10205,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2913.87</v>
+        <v>2790.4500000000003</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>136.39400000000001</v>
+        <v>116.47399999999999</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>437.00200000000007</v>
+        <v>379.80199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -10229,7 +10230,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10542,19 +10545,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -10647,19 +10650,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>226.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>36.959999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -10752,19 +10755,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -10787,19 +10790,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>563.4</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.940000000000001</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104.58</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -10894,7 +10897,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -10902,11 +10905,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>6.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -10956,15 +10959,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>1601.67</v>
+        <v>2913.87</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>90.454000000000008</v>
+        <v>136.39400000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>272.63200000000001</v>
+        <v>437.00200000000007</v>
       </c>
     </row>
   </sheetData>
@@ -11224,19 +11227,19 @@
         <v>55.05</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
-        <v>372.42500000000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>55.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -11399,19 +11402,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>226.20000000000002</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.959999999999994</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -11434,7 +11437,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -11442,11 +11445,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -11504,19 +11507,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -11539,19 +11542,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>563.4</v>
+        <v>0</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>104.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -11609,19 +11612,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -11646,7 +11649,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -11654,11 +11657,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>0</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -11708,15 +11711,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2776.2950000000001</v>
+        <v>1601.67</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>116.544</v>
+        <v>90.454000000000008</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>396.452</v>
+        <v>272.63200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -11730,6 +11733,1512 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>372.42500000000001</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2776.2950000000001</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>116.544</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>396.452</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2274.87</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>128.39400000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>427.05200000000008</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -12483,759 +13992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>647.88</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>35.82</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>5</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>413.85</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>6.2299999999999986</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>92.56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>563.4</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>104.58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>170</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2100.41</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>104.911</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>346.92599999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -13989,7 +14746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -14741,7 +15498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -15495,7 +16252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -16275,7 +17032,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -16551,7 +17308,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -16566,19 +17323,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>52.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -16671,19 +17428,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>135.72</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>5.3999999999999995</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>22.175999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -16706,7 +17463,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -16714,11 +17471,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>9.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -16741,19 +17498,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>12.18</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -16953,19 +17710,19 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="4">
         <f>E21*H21</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.9250000000000007</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.0500000000000007</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -16980,15 +17737,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2788.71</v>
+        <v>2100.41</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>140.76600000000002</v>
+        <v>104.911</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>456.65199999999999</v>
+        <v>346.92599999999999</v>
       </c>
     </row>
   </sheetData>
@@ -17002,6 +17759,758 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>413.85</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>6.2299999999999986</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>92.56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>135.72</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>22.175999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>386.58000000000004</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>12.18</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2788.71</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>140.76600000000002</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>456.65199999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -17755,7 +19264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -18509,7 +20018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -19261,7 +20770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -20013,758 +21522,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>647.88</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>35.82</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>331.08000000000004</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>4.9839999999999991</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>563.4</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>104.58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>174</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2357.64</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>119.84</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>406.36400000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/log/饮食.xlsx
+++ b/log/饮食.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
@@ -9,40 +9,41 @@
   <sheets>
     <sheet name="template" sheetId="10" r:id="rId1"/>
     <sheet name="参考" sheetId="1" r:id="rId2"/>
-    <sheet name="3-22" sheetId="34" r:id="rId3"/>
-    <sheet name="3-21" sheetId="33" r:id="rId4"/>
-    <sheet name="3-20" sheetId="32" r:id="rId5"/>
-    <sheet name="3-19" sheetId="31" r:id="rId6"/>
-    <sheet name="3-18" sheetId="30" r:id="rId7"/>
-    <sheet name="3-17" sheetId="29" r:id="rId8"/>
-    <sheet name="3-16" sheetId="28" r:id="rId9"/>
-    <sheet name="3-15" sheetId="27" r:id="rId10"/>
-    <sheet name="3-14" sheetId="26" r:id="rId11"/>
-    <sheet name="3-10" sheetId="25" r:id="rId12"/>
-    <sheet name="3-9" sheetId="24" r:id="rId13"/>
-    <sheet name="2-12" sheetId="2" r:id="rId14"/>
-    <sheet name="2-13" sheetId="3" r:id="rId15"/>
-    <sheet name="2-14" sheetId="4" r:id="rId16"/>
-    <sheet name="2-15" sheetId="5" r:id="rId17"/>
-    <sheet name="2-16" sheetId="6" r:id="rId18"/>
-    <sheet name="2-17" sheetId="7" r:id="rId19"/>
-    <sheet name="2-18" sheetId="8" r:id="rId20"/>
-    <sheet name="2-19" sheetId="9" r:id="rId21"/>
-    <sheet name="2-20" sheetId="11" r:id="rId22"/>
-    <sheet name="2-21" sheetId="12" r:id="rId23"/>
-    <sheet name="2-22" sheetId="13" r:id="rId24"/>
-    <sheet name="2-23" sheetId="14" r:id="rId25"/>
-    <sheet name="2-28" sheetId="15" r:id="rId26"/>
-    <sheet name="3-1" sheetId="16" r:id="rId27"/>
-    <sheet name="3-2" sheetId="17" r:id="rId28"/>
-    <sheet name="3-3" sheetId="18" r:id="rId29"/>
-    <sheet name="3-4" sheetId="19" r:id="rId30"/>
-    <sheet name="3-5" sheetId="20" r:id="rId31"/>
-    <sheet name="3-6" sheetId="21" r:id="rId32"/>
-    <sheet name="3-7" sheetId="22" r:id="rId33"/>
-    <sheet name="3-8" sheetId="23" r:id="rId34"/>
+    <sheet name="3-23" sheetId="35" r:id="rId3"/>
+    <sheet name="3-22" sheetId="34" r:id="rId4"/>
+    <sheet name="3-21" sheetId="33" r:id="rId5"/>
+    <sheet name="3-20" sheetId="32" r:id="rId6"/>
+    <sheet name="3-19" sheetId="31" r:id="rId7"/>
+    <sheet name="3-18" sheetId="30" r:id="rId8"/>
+    <sheet name="3-17" sheetId="29" r:id="rId9"/>
+    <sheet name="3-16" sheetId="28" r:id="rId10"/>
+    <sheet name="3-15" sheetId="27" r:id="rId11"/>
+    <sheet name="3-14" sheetId="26" r:id="rId12"/>
+    <sheet name="3-10" sheetId="25" r:id="rId13"/>
+    <sheet name="3-9" sheetId="24" r:id="rId14"/>
+    <sheet name="2-12" sheetId="2" r:id="rId15"/>
+    <sheet name="2-13" sheetId="3" r:id="rId16"/>
+    <sheet name="2-14" sheetId="4" r:id="rId17"/>
+    <sheet name="2-15" sheetId="5" r:id="rId18"/>
+    <sheet name="2-16" sheetId="6" r:id="rId19"/>
+    <sheet name="2-17" sheetId="7" r:id="rId20"/>
+    <sheet name="2-18" sheetId="8" r:id="rId21"/>
+    <sheet name="2-19" sheetId="9" r:id="rId22"/>
+    <sheet name="2-20" sheetId="11" r:id="rId23"/>
+    <sheet name="2-21" sheetId="12" r:id="rId24"/>
+    <sheet name="2-22" sheetId="13" r:id="rId25"/>
+    <sheet name="2-23" sheetId="14" r:id="rId26"/>
+    <sheet name="2-28" sheetId="15" r:id="rId27"/>
+    <sheet name="3-1" sheetId="16" r:id="rId28"/>
+    <sheet name="3-2" sheetId="17" r:id="rId29"/>
+    <sheet name="3-3" sheetId="18" r:id="rId30"/>
+    <sheet name="3-4" sheetId="19" r:id="rId31"/>
+    <sheet name="3-5" sheetId="20" r:id="rId32"/>
+    <sheet name="3-6" sheetId="21" r:id="rId33"/>
+    <sheet name="3-7" sheetId="22" r:id="rId34"/>
+    <sheet name="3-8" sheetId="23" r:id="rId35"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="104">
   <si>
     <t>卡路里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1637,6 +1638,760 @@
   <dimension ref="B2:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>863.84</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>47.76</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>128.80000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>331.08000000000004</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9839999999999991</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>386.58000000000004</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>12.18</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2786.18</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>140.06</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>438.56400000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -2386,7 +3141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -3128,760 +3883,6 @@
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
         <v>283.27199999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:K22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>647.88</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>35.82</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>372.42500000000001</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>12.25</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>55.05</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>248.31000000000003</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7379999999999995</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>55.536000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>90.48</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>14.783999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>563.4</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>104.58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2563.7750000000001</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>130.54400000000001</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>419.286</v>
       </c>
     </row>
   </sheetData>
@@ -3922,7 +3923,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -4143,19 +4144,19 @@
         <v>55.05</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>372.42500000000001</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>55.05</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -4198,7 +4199,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -4318,19 +4319,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90.48</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.783999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -4423,19 +4424,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -4627,15 +4628,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2739.87</v>
+        <v>2563.7750000000001</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>136.29400000000001</v>
+        <v>130.54400000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>428.20199999999994</v>
+        <v>419.286</v>
       </c>
     </row>
   </sheetData>
@@ -4649,6 +4650,760 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2739.87</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>136.29400000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>428.20199999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:E18"/>
   <sheetViews>
@@ -4822,7 +5577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:E20"/>
   <sheetViews>
@@ -4975,7 +5730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -5133,7 +5888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -5285,7 +6040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -5418,163 +6173,6 @@
       <c r="E14">
         <f>SUM(E4:E13)</f>
         <v>404.31399999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4">
-        <f>4*7.049</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="E4">
-        <f>4*1.484</f>
-        <v>5.9359999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5">
-        <f>3*11.94</f>
-        <v>35.82</v>
-      </c>
-      <c r="E5">
-        <f>3*32.2</f>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6">
-        <f>4*1.246</f>
-        <v>4.984</v>
-      </c>
-      <c r="E6">
-        <f>4*18.512</f>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <f>2*3</f>
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <f>2*4.8</f>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8">
-        <f>2*4.98</f>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="E8">
-        <f>2*34.86</f>
-        <v>69.72</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9">
-        <f>5*2.72</f>
-        <v>13.600000000000001</v>
-      </c>
-      <c r="E9">
-        <f>5*13.76</f>
-        <v>68.8</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10">
-        <v>12.18</v>
-      </c>
-      <c r="E10">
-        <v>38.400000000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <f>2*12.6</f>
-        <v>25.2</v>
-      </c>
-      <c r="E11">
-        <f>2*26.2</f>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12">
-        <f>3*1.8</f>
-        <v>5.4</v>
-      </c>
-      <c r="E12">
-        <f>3*7.392</f>
-        <v>22.176000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <f>SUM(D4:D13)</f>
-        <v>141.34</v>
-      </c>
-      <c r="E14">
-        <f>SUM(E4:E13)</f>
-        <v>437.68</v>
       </c>
     </row>
   </sheetData>
@@ -6132,6 +6730,163 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <f>4*7.049</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="E4">
+        <f>4*1.484</f>
+        <v>5.9359999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <f>3*11.94</f>
+        <v>35.82</v>
+      </c>
+      <c r="E5">
+        <f>3*32.2</f>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <f>4*1.246</f>
+        <v>4.984</v>
+      </c>
+      <c r="E6">
+        <f>4*18.512</f>
+        <v>74.048000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>2*4.8</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <f>2*4.98</f>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E8">
+        <f>2*34.86</f>
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <f>5*2.72</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="E9">
+        <f>5*13.76</f>
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>12.18</v>
+      </c>
+      <c r="E10">
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <f>2*12.6</f>
+        <v>25.2</v>
+      </c>
+      <c r="E11">
+        <f>2*26.2</f>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <f>3*1.8</f>
+        <v>5.4</v>
+      </c>
+      <c r="E12">
+        <f>3*7.392</f>
+        <v>22.176000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D4:D13)</f>
+        <v>141.34</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E4:E13)</f>
+        <v>437.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6296,7 +7051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E15"/>
   <sheetViews>
@@ -6456,758 +7211,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>431.92</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>23.88</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>64.400000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>151.34399999999999</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>26.216999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>331.08000000000004</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>4.9839999999999991</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>180.96</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>29.567999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>12.18</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>375.59999999999997</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>69.72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2498.7640000000001</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>131.483</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>404.68899999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7356,19 +7359,19 @@
         <v>32.200000000000003</v>
       </c>
       <c r="H5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="2"/>
-        <v>647.88</v>
+        <v>431.92</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>35.82</v>
+        <v>23.88</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -7391,19 +7394,19 @@
         <v>26.216999999999999</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>151.34399999999999</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.0830000000000002</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.216999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -7446,7 +7449,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -7636,19 +7639,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>180.96</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29.567999999999998</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -7703,22 +7706,22 @@
         <v>12.18</v>
       </c>
       <c r="G15" s="8">
-        <v>38.400000000000006</v>
+        <v>38.4</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -7741,19 +7744,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -7776,19 +7779,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>563.4</v>
+        <v>375.59999999999997</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>104.58</v>
+        <v>69.72</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -7811,19 +7814,19 @@
         <v>62.070000000000007</v>
       </c>
       <c r="H18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>327.78000000000003</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>12.48</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>62.070000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -7883,7 +7886,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -7891,11 +7894,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>0</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -7945,15 +7948,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>3150.42</v>
+        <v>2498.7640000000001</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>149.22</v>
+        <v>131.483</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>483.98399999999998</v>
+        <v>404.68899999999996</v>
       </c>
     </row>
   </sheetData>
@@ -8283,19 +8286,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -8318,19 +8321,19 @@
         <v>18.512</v>
       </c>
       <c r="H11" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="2"/>
-        <v>289.69500000000005</v>
+        <v>331.08000000000004</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>4.3609999999999989</v>
+        <v>4.9839999999999991</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>64.792000000000002</v>
+        <v>74.048000000000002</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -8388,19 +8391,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>226.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>36.959999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -8458,19 +8461,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>12.18</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -8563,19 +8566,19 @@
         <v>62.070000000000007</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>327.78000000000003</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62.070000000000007</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -8697,15 +8700,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>3058.0350000000003</v>
+        <v>3150.42</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>132.09700000000001</v>
+        <v>149.22</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>435.61799999999999</v>
+        <v>483.98399999999998</v>
       </c>
     </row>
   </sheetData>
@@ -8719,6 +8722,758 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>289.69500000000005</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3609999999999989</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>64.792000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>226.20000000000002</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>36.959999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>386.58000000000004</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>12.18</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>3058.0350000000003</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>132.09700000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>435.61799999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -9460,760 +10215,6 @@
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
         <v>391.26799999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>647.88</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>35.82</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>96.600000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>248.31000000000003</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7379999999999995</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>55.536000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>12.18</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>639</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>78.75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>563.4</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>104.58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2790.4500000000003</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>116.47399999999999</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>379.80199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -10254,7 +10255,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -10530,7 +10531,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -10545,19 +10546,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>52.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -10685,7 +10686,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -10693,11 +10694,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -10720,19 +10721,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -10860,19 +10861,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>3.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -10959,15 +10960,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2913.87</v>
+        <v>2790.4500000000003</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>136.39400000000001</v>
+        <v>116.47399999999999</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>437.00200000000007</v>
+        <v>379.80199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -10984,7 +10985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11297,19 +11300,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -11402,19 +11405,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>226.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>36.959999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -11507,19 +11510,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -11542,19 +11545,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>563.4</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.940000000000001</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104.58</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -11649,7 +11652,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -11657,11 +11660,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>6.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -11711,15 +11714,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>1601.67</v>
+        <v>2913.87</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>90.454000000000008</v>
+        <v>136.39400000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>272.63200000000001</v>
+        <v>437.00200000000007</v>
       </c>
     </row>
   </sheetData>
@@ -11979,19 +11982,19 @@
         <v>55.05</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
-        <v>372.42500000000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>55.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -12154,19 +12157,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>226.20000000000002</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.959999999999994</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -12189,7 +12192,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -12197,11 +12200,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -12259,19 +12262,19 @@
         <v>78.75</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -12294,19 +12297,19 @@
         <v>34.86</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>563.4</v>
+        <v>0</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>104.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -12364,19 +12367,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -12401,7 +12404,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -12409,11 +12412,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>0</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -12463,15 +12466,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2776.2950000000001</v>
+        <v>1601.67</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>116.544</v>
+        <v>90.454000000000008</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>396.452</v>
+        <v>272.63200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -12488,9 +12491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12803,19 +12804,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>52.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -12838,19 +12839,19 @@
         <v>18.512</v>
       </c>
       <c r="H11" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="2"/>
-        <v>248.31000000000003</v>
+        <v>0</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>3.7379999999999995</v>
+        <v>0</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>55.536000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -12858,7 +12859,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -12978,19 +12979,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>386.58000000000004</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -13118,19 +13119,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>3.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -13155,7 +13156,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -13163,11 +13164,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>13.600000000000001</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>68.8</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -13217,15 +13218,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2274.87</v>
+        <v>1903.1399999999999</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>128.39400000000001</v>
+        <v>100.93599999999999</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>427.05200000000008</v>
+        <v>284.71599999999995</v>
       </c>
     </row>
   </sheetData>
@@ -13239,6 +13240,758 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>372.42500000000001</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>248.31000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7379999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>55.536000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2776.2950000000001</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>116.544</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>396.452</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -13992,7 +14745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -14746,7 +15499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -15498,7 +16251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -16252,7 +17005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -17010,7 +17763,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17032,7 +17787,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -17308,7 +18063,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -17323,19 +18078,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -17358,19 +18113,19 @@
         <v>18.512</v>
       </c>
       <c r="H11" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="2"/>
-        <v>413.85</v>
+        <v>248.31000000000003</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>6.2299999999999986</v>
+        <v>3.7379999999999995</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>92.56</v>
+        <v>55.536000000000001</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -17638,19 +18393,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -17675,7 +18430,7 @@
         <v>34.4</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="4">
         <f>E20*H20</f>
@@ -17683,11 +18438,11 @@
       </c>
       <c r="J20" s="4">
         <f>F20*H20</f>
-        <v>6.8000000000000007</v>
+        <v>13.600000000000001</v>
       </c>
       <c r="K20" s="4">
         <f>G20*H20</f>
-        <v>34.4</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -17710,19 +18465,19 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="H21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="4">
         <f>E21*H21</f>
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="0"/>
-        <v>9.9250000000000007</v>
+        <v>0</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="1"/>
-        <v>8.0500000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -17737,15 +18492,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2100.41</v>
+        <v>2274.87</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>104.911</v>
+        <v>128.39400000000001</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>346.92599999999999</v>
+        <v>427.05200000000008</v>
       </c>
     </row>
   </sheetData>
@@ -17784,7 +18539,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -18060,7 +18815,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -18075,19 +18830,19 @@
         <v>26.2</v>
       </c>
       <c r="H10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>52.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -18180,19 +18935,19 @@
         <v>7.3919999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
-        <v>135.72</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>5.3999999999999995</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>22.175999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -18215,7 +18970,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -18223,11 +18978,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>9.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -18250,19 +19005,19 @@
         <v>38.400000000000006</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>12.18</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -18462,19 +19217,19 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="4">
         <f>E21*H21</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.9250000000000007</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.0500000000000007</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -18489,15 +19244,15 @@
       <c r="H22" s="11"/>
       <c r="I22" s="6">
         <f>SUM(I3:I21)</f>
-        <v>2788.71</v>
+        <v>2100.41</v>
       </c>
       <c r="J22" s="6">
         <f>SUM(J3:J21)</f>
-        <v>140.76600000000002</v>
+        <v>104.911</v>
       </c>
       <c r="K22" s="6">
         <f>SUM(K3:K21)</f>
-        <v>456.65199999999999</v>
+        <v>346.92599999999999</v>
       </c>
     </row>
   </sheetData>
@@ -18511,6 +19266,758 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.4839999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>E3*H3</f>
+        <v>305.27999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
+        <v>5.9359999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>45*D4</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <f>5.7*D4</f>
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>215.96</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11.94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>647.88</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>35.82</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>151.34399999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>26.216999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>446.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.500000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>372.42500000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>168</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.77000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2459999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.512</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>413.85</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>6.2299999999999986</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>92.56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.05</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7.3919999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>135.72</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>22.175999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>386.58000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>386.58000000000004</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>12.18</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>38.400000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>639</v>
+      </c>
+      <c r="F16" s="8">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>78.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <v>34.86</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>563.4</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>327.78000000000003</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12.48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>2.5*2.72</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G20" s="8">
+        <f>2.5*13.76</f>
+        <v>34.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f>E20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F20*H20</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20*H20</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>E21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6">
+        <f>SUM(I3:I21)</f>
+        <v>2788.71</v>
+      </c>
+      <c r="J22" s="6">
+        <f>SUM(J3:J21)</f>
+        <v>140.76600000000002</v>
+      </c>
+      <c r="K22" s="6">
+        <f>SUM(K3:K21)</f>
+        <v>456.65199999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -19264,7 +20771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -20018,7 +21525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
@@ -20768,758 +22275,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:K22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.0490000000000004</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.4839999999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>E3*H3</f>
-        <v>305.27999999999997</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J21" si="0">F3*H3</f>
-        <v>28.196000000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K21" si="1">G3*H3</f>
-        <v>5.9359999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <f>45*D4</f>
-        <v>45</v>
-      </c>
-      <c r="F4" s="8">
-        <f>5.7*D4</f>
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I19" si="2">E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>215.96</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.94</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H5" s="3">
-        <v>4</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>863.84</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>47.76</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>128.80000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151.34399999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <v>26.216999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>446.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44.500000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>372.42500000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>55.05</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>82.77000000000001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.2459999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18.512</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>331.08000000000004</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>4.9839999999999991</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>74.048000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.7799999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45.24</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.3919999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>386.58000000000004</v>
-      </c>
-      <c r="F15" s="8">
-        <v>12.18</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>386.58000000000004</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>12.18</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>639</v>
-      </c>
-      <c r="F16" s="8">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>78.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>187.79999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>34.86</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>563.4</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>14.940000000000001</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>104.58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>327.78000000000003</v>
-      </c>
-      <c r="F18" s="8">
-        <v>12.48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>62.070000000000007</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>2.5*2.72</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G20" s="8">
-        <f>2.5*13.76</f>
-        <v>34.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <f>E20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f>F20*H20</f>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20*H20</f>
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>E21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6">
-        <f>SUM(I3:I21)</f>
-        <v>2786.18</v>
-      </c>
-      <c r="J22" s="6">
-        <f>SUM(J3:J21)</f>
-        <v>140.06</v>
-      </c>
-      <c r="K22" s="6">
-        <f>SUM(K3:K21)</f>
-        <v>438.56400000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:H22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>